--- a/Final_Updated_with_Estimates.xlsx
+++ b/Final_Updated_with_Estimates.xlsx
@@ -468,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E506"/>
+  <dimension ref="A1:F506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -479,9 +479,10 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="80" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="70" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="80" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -510,6 +511,11 @@
           <t>Milestone</t>
         </is>
       </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Assignment Reason</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -521,6 +527,7 @@
       <c r="C2" s="4" t="inlineStr"/>
       <c r="D2" s="5" t="inlineStr"/>
       <c r="E2" s="3" t="inlineStr"/>
+      <c r="F2" s="4" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -542,6 +549,11 @@
         <v>2.5</v>
       </c>
       <c r="E3" s="7" t="inlineStr"/>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>Security issue requiring git history cleanup to remove exposed credentials from codebase</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr"/>
@@ -559,6 +571,11 @@
         <v>2.5</v>
       </c>
       <c r="E4" s="7" t="inlineStr"/>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>Security issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr"/>
@@ -576,6 +593,11 @@
         <v>2.5</v>
       </c>
       <c r="E5" s="7" t="inlineStr"/>
+      <c r="F5" s="8" t="inlineStr">
+        <is>
+          <t>Security issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr"/>
@@ -593,6 +615,11 @@
         <v>2.5</v>
       </c>
       <c r="E6" s="7" t="inlineStr"/>
+      <c r="F6" s="8" t="inlineStr">
+        <is>
+          <t>Security issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr"/>
@@ -610,6 +637,11 @@
         <v>2.5</v>
       </c>
       <c r="E7" s="7" t="inlineStr"/>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>Security issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -631,6 +663,11 @@
         <v>1</v>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Bug vulnerability requiring API key rotation and secrets management setup</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr"/>
@@ -648,6 +685,11 @@
         <v>1.5</v>
       </c>
       <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>AWS issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -669,6 +711,11 @@
         <v>2.5</v>
       </c>
       <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>CORS configuration issue requiring proper origin whitelisting and security headers</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="inlineStr">
@@ -690,6 +737,11 @@
         <v>2.5</v>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>Rate limiting issue in API layer requiring throttle configuration</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="inlineStr"/>
@@ -707,6 +759,11 @@
         <v>2.5</v>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>Security issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="inlineStr"/>
@@ -724,6 +781,11 @@
         <v>1.5</v>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="inlineStr"/>
@@ -741,6 +803,11 @@
         <v>1.5</v>
       </c>
       <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Cross-Repo grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="inlineStr"/>
@@ -758,6 +825,11 @@
         <v>1</v>
       </c>
       <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="inlineStr"/>
@@ -775,6 +847,11 @@
         <v>1</v>
       </c>
       <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
@@ -796,6 +873,11 @@
         <v>1.5</v>
       </c>
       <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>Database connection pooling setup in Dashboard Backend to prevent connection exhaustion</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="inlineStr"/>
@@ -813,6 +895,11 @@
         <v>1.5</v>
       </c>
       <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="inlineStr"/>
@@ -830,6 +917,11 @@
         <v>1.5</v>
       </c>
       <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr"/>
@@ -847,6 +939,11 @@
         <v>1.5</v>
       </c>
       <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="inlineStr">
@@ -868,6 +965,11 @@
         <v>1.5</v>
       </c>
       <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>AWS security hardening - restricting network access and closing exposed ports</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr"/>
@@ -885,6 +987,11 @@
         <v>1.5</v>
       </c>
       <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>AWS issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr"/>
@@ -902,6 +1009,11 @@
         <v>1.5</v>
       </c>
       <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr">
+        <is>
+          <t>AWS issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr"/>
@@ -919,6 +1031,11 @@
         <v>1.5</v>
       </c>
       <c r="E24" s="7" t="inlineStr"/>
+      <c r="F24" s="8" t="inlineStr">
+        <is>
+          <t>AWS issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr"/>
@@ -936,6 +1053,11 @@
         <v>1.5</v>
       </c>
       <c r="E25" s="7" t="inlineStr"/>
+      <c r="F25" s="8" t="inlineStr">
+        <is>
+          <t>AWS issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr"/>
@@ -953,6 +1075,11 @@
         <v>1.5</v>
       </c>
       <c r="E26" s="7" t="inlineStr"/>
+      <c r="F26" s="8" t="inlineStr">
+        <is>
+          <t>AWS issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr"/>
@@ -970,6 +1097,11 @@
         <v>1.5</v>
       </c>
       <c r="E27" s="7" t="inlineStr"/>
+      <c r="F27" s="8" t="inlineStr">
+        <is>
+          <t>AWS issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr"/>
@@ -987,6 +1119,11 @@
         <v>1.5</v>
       </c>
       <c r="E28" s="7" t="inlineStr"/>
+      <c r="F28" s="8" t="inlineStr">
+        <is>
+          <t>AWS issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
@@ -998,6 +1135,7 @@
       <c r="C29" s="4" t="inlineStr"/>
       <c r="D29" s="5" t="inlineStr"/>
       <c r="E29" s="3" t="inlineStr"/>
+      <c r="F29" s="4" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="6" t="inlineStr">
@@ -1019,6 +1157,11 @@
         <v>2.5</v>
       </c>
       <c r="E30" s="7" t="inlineStr"/>
+      <c r="F30" s="8" t="inlineStr">
+        <is>
+          <t>Framework upgrade in None to address security vulnerabilities and enable new features</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr"/>
@@ -1036,6 +1179,11 @@
         <v>1.5</v>
       </c>
       <c r="E31" s="7" t="inlineStr"/>
+      <c r="F31" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr"/>
@@ -1053,6 +1201,11 @@
         <v>1.5</v>
       </c>
       <c r="E32" s="7" t="inlineStr"/>
+      <c r="F32" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr"/>
@@ -1070,6 +1223,11 @@
         <v>1.5</v>
       </c>
       <c r="E33" s="7" t="inlineStr"/>
+      <c r="F33" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
@@ -1091,6 +1249,11 @@
         <v>1.5</v>
       </c>
       <c r="E34" s="7" t="inlineStr"/>
+      <c r="F34" s="8" t="inlineStr">
+        <is>
+          <t>Database query optimization in Dashboard Backend to reduce query count and improve response time</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="7" t="inlineStr"/>
@@ -1108,6 +1271,11 @@
         <v>1.5</v>
       </c>
       <c r="E35" s="7" t="inlineStr"/>
+      <c r="F35" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="7" t="inlineStr"/>
@@ -1125,6 +1293,11 @@
         <v>1.5</v>
       </c>
       <c r="E36" s="7" t="inlineStr"/>
+      <c r="F36" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="7" t="inlineStr"/>
@@ -1142,6 +1315,11 @@
         <v>1.5</v>
       </c>
       <c r="E37" s="7" t="inlineStr"/>
+      <c r="F37" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="7" t="inlineStr"/>
@@ -1159,6 +1337,11 @@
         <v>1.5</v>
       </c>
       <c r="E38" s="7" t="inlineStr"/>
+      <c r="F38" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="inlineStr"/>
@@ -1176,6 +1359,11 @@
         <v>1.5</v>
       </c>
       <c r="E39" s="7" t="inlineStr"/>
+      <c r="F39" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="7" t="inlineStr"/>
@@ -1193,6 +1381,11 @@
         <v>1.5</v>
       </c>
       <c r="E40" s="7" t="inlineStr"/>
+      <c r="F40" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
@@ -1214,6 +1407,11 @@
         <v>1.5</v>
       </c>
       <c r="E41" s="7" t="inlineStr"/>
+      <c r="F41" s="8" t="inlineStr">
+        <is>
+          <t>Core database performance issue in Dashboard Backend requiring schema or query optimization</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="7" t="inlineStr"/>
@@ -1231,6 +1429,11 @@
         <v>1.5</v>
       </c>
       <c r="E42" s="7" t="inlineStr"/>
+      <c r="F42" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="7" t="inlineStr"/>
@@ -1248,6 +1451,11 @@
         <v>1.5</v>
       </c>
       <c r="E43" s="7" t="inlineStr"/>
+      <c r="F43" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="7" t="inlineStr"/>
@@ -1265,6 +1473,11 @@
         <v>1.5</v>
       </c>
       <c r="E44" s="7" t="inlineStr"/>
+      <c r="F44" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="inlineStr"/>
@@ -1282,6 +1495,11 @@
         <v>1.5</v>
       </c>
       <c r="E45" s="7" t="inlineStr"/>
+      <c r="F45" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="7" t="inlineStr"/>
@@ -1299,6 +1517,11 @@
         <v>1</v>
       </c>
       <c r="E46" s="7" t="inlineStr"/>
+      <c r="F46" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="7" t="inlineStr"/>
@@ -1316,6 +1539,11 @@
         <v>1</v>
       </c>
       <c r="E47" s="7" t="inlineStr"/>
+      <c r="F47" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="7" t="inlineStr"/>
@@ -1333,6 +1561,11 @@
         <v>1</v>
       </c>
       <c r="E48" s="7" t="inlineStr"/>
+      <c r="F48" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="7" t="inlineStr"/>
@@ -1350,6 +1583,11 @@
         <v>1</v>
       </c>
       <c r="E49" s="7" t="inlineStr"/>
+      <c r="F49" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="7" t="inlineStr"/>
@@ -1367,6 +1605,11 @@
         <v>1</v>
       </c>
       <c r="E50" s="7" t="inlineStr"/>
+      <c r="F50" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="7" t="inlineStr"/>
@@ -1384,6 +1627,11 @@
         <v>1</v>
       </c>
       <c r="E51" s="7" t="inlineStr"/>
+      <c r="F51" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="7" t="inlineStr"/>
@@ -1401,6 +1649,11 @@
         <v>1</v>
       </c>
       <c r="E52" s="7" t="inlineStr"/>
+      <c r="F52" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="7" t="inlineStr"/>
@@ -1418,6 +1671,11 @@
         <v>1</v>
       </c>
       <c r="E53" s="7" t="inlineStr"/>
+      <c r="F53" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="7" t="inlineStr"/>
@@ -1435,6 +1693,11 @@
         <v>1</v>
       </c>
       <c r="E54" s="7" t="inlineStr"/>
+      <c r="F54" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="7" t="inlineStr"/>
@@ -1452,6 +1715,11 @@
         <v>1</v>
       </c>
       <c r="E55" s="7" t="inlineStr"/>
+      <c r="F55" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="7" t="inlineStr"/>
@@ -1469,6 +1737,11 @@
         <v>1</v>
       </c>
       <c r="E56" s="7" t="inlineStr"/>
+      <c r="F56" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="7" t="inlineStr"/>
@@ -1486,6 +1759,11 @@
         <v>1</v>
       </c>
       <c r="E57" s="7" t="inlineStr"/>
+      <c r="F57" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="6" t="inlineStr">
@@ -1507,6 +1785,11 @@
         <v>1.5</v>
       </c>
       <c r="E58" s="7" t="inlineStr"/>
+      <c r="F58" s="8" t="inlineStr">
+        <is>
+          <t>Pagination implementation in Dashboard Backend to prevent memory overflow on large datasets</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="7" t="inlineStr"/>
@@ -1524,6 +1807,11 @@
         <v>1.5</v>
       </c>
       <c r="E59" s="7" t="inlineStr"/>
+      <c r="F59" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="7" t="inlineStr"/>
@@ -1541,6 +1829,11 @@
         <v>1.5</v>
       </c>
       <c r="E60" s="7" t="inlineStr"/>
+      <c r="F60" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="7" t="inlineStr"/>
@@ -1558,6 +1851,11 @@
         <v>1.5</v>
       </c>
       <c r="E61" s="7" t="inlineStr"/>
+      <c r="F61" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="7" t="inlineStr"/>
@@ -1575,6 +1873,11 @@
         <v>1</v>
       </c>
       <c r="E62" s="7" t="inlineStr"/>
+      <c r="F62" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="7" t="inlineStr"/>
@@ -1592,6 +1895,11 @@
         <v>1</v>
       </c>
       <c r="E63" s="7" t="inlineStr"/>
+      <c r="F63" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="7" t="inlineStr"/>
@@ -1609,6 +1917,11 @@
         <v>1</v>
       </c>
       <c r="E64" s="7" t="inlineStr"/>
+      <c r="F64" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="7" t="inlineStr"/>
@@ -1626,6 +1939,11 @@
         <v>1</v>
       </c>
       <c r="E65" s="7" t="inlineStr"/>
+      <c r="F65" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="7" t="inlineStr"/>
@@ -1643,6 +1961,11 @@
         <v>1</v>
       </c>
       <c r="E66" s="7" t="inlineStr"/>
+      <c r="F66" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="7" t="inlineStr"/>
@@ -1660,6 +1983,11 @@
         <v>1</v>
       </c>
       <c r="E67" s="7" t="inlineStr"/>
+      <c r="F67" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="7" t="inlineStr"/>
@@ -1677,6 +2005,11 @@
         <v>1</v>
       </c>
       <c r="E68" s="7" t="inlineStr"/>
+      <c r="F68" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="7" t="inlineStr"/>
@@ -1694,6 +2027,11 @@
         <v>1</v>
       </c>
       <c r="E69" s="7" t="inlineStr"/>
+      <c r="F69" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="7" t="inlineStr"/>
@@ -1711,6 +2049,11 @@
         <v>1</v>
       </c>
       <c r="E70" s="7" t="inlineStr"/>
+      <c r="F70" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
@@ -1722,6 +2065,7 @@
       <c r="C71" s="4" t="inlineStr"/>
       <c r="D71" s="5" t="inlineStr"/>
       <c r="E71" s="3" t="inlineStr"/>
+      <c r="F71" s="4" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="6" t="inlineStr">
@@ -1743,6 +2087,11 @@
         <v>2.5</v>
       </c>
       <c r="E72" s="7" t="inlineStr"/>
+      <c r="F72" s="8" t="inlineStr">
+        <is>
+          <t>Token lifecycle management requiring JWT refresh token implementation</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="7" t="inlineStr"/>
@@ -1760,6 +2109,11 @@
         <v>2.5</v>
       </c>
       <c r="E73" s="7" t="inlineStr"/>
+      <c r="F73" s="8" t="inlineStr">
+        <is>
+          <t>Security issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="7" t="inlineStr"/>
@@ -1777,6 +2131,11 @@
         <v>2.5</v>
       </c>
       <c r="E74" s="7" t="inlineStr"/>
+      <c r="F74" s="8" t="inlineStr">
+        <is>
+          <t>Security issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="7" t="inlineStr"/>
@@ -1794,6 +2153,11 @@
         <v>2.5</v>
       </c>
       <c r="E75" s="7" t="inlineStr"/>
+      <c r="F75" s="8" t="inlineStr">
+        <is>
+          <t>Security issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="7" t="inlineStr"/>
@@ -1811,6 +2175,11 @@
         <v>1.5</v>
       </c>
       <c r="E76" s="7" t="inlineStr"/>
+      <c r="F76" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="7" t="inlineStr"/>
@@ -1828,6 +2197,11 @@
         <v>1</v>
       </c>
       <c r="E77" s="7" t="inlineStr"/>
+      <c r="F77" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="7" t="inlineStr"/>
@@ -1845,6 +2219,11 @@
         <v>1</v>
       </c>
       <c r="E78" s="7" t="inlineStr"/>
+      <c r="F78" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="7" t="inlineStr"/>
@@ -1862,6 +2241,11 @@
         <v>1</v>
       </c>
       <c r="E79" s="7" t="inlineStr"/>
+      <c r="F79" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="7" t="inlineStr"/>
@@ -1879,6 +2263,11 @@
         <v>1</v>
       </c>
       <c r="E80" s="7" t="inlineStr"/>
+      <c r="F80" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="7" t="inlineStr"/>
@@ -1896,6 +2285,11 @@
         <v>1</v>
       </c>
       <c r="E81" s="7" t="inlineStr"/>
+      <c r="F81" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="7" t="inlineStr"/>
@@ -1913,6 +2307,11 @@
         <v>0.5</v>
       </c>
       <c r="E82" s="7" t="inlineStr"/>
+      <c r="F82" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="7" t="inlineStr"/>
@@ -1930,6 +2329,11 @@
         <v>1</v>
       </c>
       <c r="E83" s="7" t="inlineStr"/>
+      <c r="F83" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="7" t="inlineStr"/>
@@ -1947,6 +2351,11 @@
         <v>0.5</v>
       </c>
       <c r="E84" s="7" t="inlineStr"/>
+      <c r="F84" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="7" t="inlineStr"/>
@@ -1964,6 +2373,11 @@
         <v>1</v>
       </c>
       <c r="E85" s="7" t="inlineStr"/>
+      <c r="F85" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="7" t="inlineStr"/>
@@ -1981,6 +2395,11 @@
         <v>1</v>
       </c>
       <c r="E86" s="7" t="inlineStr"/>
+      <c r="F86" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="7" t="inlineStr"/>
@@ -1998,6 +2417,11 @@
         <v>1</v>
       </c>
       <c r="E87" s="7" t="inlineStr"/>
+      <c r="F87" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="7" t="inlineStr"/>
@@ -2015,6 +2439,11 @@
         <v>0.5</v>
       </c>
       <c r="E88" s="7" t="inlineStr"/>
+      <c r="F88" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="7" t="inlineStr"/>
@@ -2032,6 +2461,11 @@
         <v>1</v>
       </c>
       <c r="E89" s="7" t="inlineStr"/>
+      <c r="F89" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="7" t="inlineStr"/>
@@ -2049,6 +2483,11 @@
         <v>0.5</v>
       </c>
       <c r="E90" s="7" t="inlineStr"/>
+      <c r="F90" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="7" t="inlineStr"/>
@@ -2066,6 +2505,11 @@
         <v>1</v>
       </c>
       <c r="E91" s="7" t="inlineStr"/>
+      <c r="F91" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="7" t="inlineStr"/>
@@ -2083,6 +2527,11 @@
         <v>1</v>
       </c>
       <c r="E92" s="7" t="inlineStr"/>
+      <c r="F92" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="7" t="inlineStr"/>
@@ -2100,6 +2549,11 @@
         <v>1</v>
       </c>
       <c r="E93" s="7" t="inlineStr"/>
+      <c r="F93" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="7" t="inlineStr"/>
@@ -2117,6 +2571,11 @@
         <v>1</v>
       </c>
       <c r="E94" s="7" t="inlineStr"/>
+      <c r="F94" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="7" t="inlineStr"/>
@@ -2134,6 +2593,11 @@
         <v>1</v>
       </c>
       <c r="E95" s="7" t="inlineStr"/>
+      <c r="F95" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="7" t="inlineStr"/>
@@ -2151,6 +2615,11 @@
         <v>1</v>
       </c>
       <c r="E96" s="7" t="inlineStr"/>
+      <c r="F96" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="7" t="inlineStr"/>
@@ -2168,6 +2637,11 @@
         <v>1</v>
       </c>
       <c r="E97" s="7" t="inlineStr"/>
+      <c r="F97" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="7" t="inlineStr"/>
@@ -2185,6 +2659,11 @@
         <v>1</v>
       </c>
       <c r="E98" s="7" t="inlineStr"/>
+      <c r="F98" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="7" t="inlineStr"/>
@@ -2202,6 +2681,11 @@
         <v>1</v>
       </c>
       <c r="E99" s="7" t="inlineStr"/>
+      <c r="F99" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="7" t="inlineStr"/>
@@ -2219,6 +2703,11 @@
         <v>1</v>
       </c>
       <c r="E100" s="7" t="inlineStr"/>
+      <c r="F100" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="6" t="inlineStr">
@@ -2240,6 +2729,11 @@
         <v>2.5</v>
       </c>
       <c r="E101" s="7" t="inlineStr"/>
+      <c r="F101" s="8" t="inlineStr">
+        <is>
+          <t>Session security requiring httpOnly cookie implementation to prevent XSS attacks</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="7" t="inlineStr"/>
@@ -2257,6 +2751,11 @@
         <v>1</v>
       </c>
       <c r="E102" s="7" t="inlineStr"/>
+      <c r="F102" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="6" t="inlineStr">
@@ -2278,6 +2777,11 @@
         <v>1</v>
       </c>
       <c r="E103" s="7" t="inlineStr"/>
+      <c r="F103" s="8" t="inlineStr">
+        <is>
+          <t>CSRF protection implementation requiring token validation on state-changing requests</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="7" t="inlineStr"/>
@@ -2295,6 +2799,11 @@
         <v>1</v>
       </c>
       <c r="E104" s="7" t="inlineStr"/>
+      <c r="F104" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="6" t="inlineStr">
@@ -2316,6 +2825,11 @@
         <v>2.5</v>
       </c>
       <c r="E105" s="7" t="inlineStr"/>
+      <c r="F105" s="8" t="inlineStr">
+        <is>
+          <t>Multi-factor authentication implementation for enhanced account security</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
@@ -2327,6 +2841,7 @@
       <c r="C106" s="4" t="inlineStr"/>
       <c r="D106" s="5" t="inlineStr"/>
       <c r="E106" s="3" t="inlineStr"/>
+      <c r="F106" s="4" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="6" t="inlineStr">
@@ -2348,6 +2863,11 @@
         <v>1.5</v>
       </c>
       <c r="E107" s="7" t="inlineStr"/>
+      <c r="F107" s="8" t="inlineStr">
+        <is>
+          <t>Medium-priority performance optimization in Dashboard Backend</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="7" t="inlineStr"/>
@@ -2365,6 +2885,11 @@
         <v>1.5</v>
       </c>
       <c r="E108" s="7" t="inlineStr"/>
+      <c r="F108" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="7" t="inlineStr"/>
@@ -2382,6 +2907,11 @@
         <v>1.5</v>
       </c>
       <c r="E109" s="7" t="inlineStr"/>
+      <c r="F109" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="7" t="inlineStr"/>
@@ -2399,6 +2929,11 @@
         <v>1.5</v>
       </c>
       <c r="E110" s="7" t="inlineStr"/>
+      <c r="F110" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="7" t="inlineStr"/>
@@ -2416,6 +2951,11 @@
         <v>1.5</v>
       </c>
       <c r="E111" s="7" t="inlineStr"/>
+      <c r="F111" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="7" t="inlineStr"/>
@@ -2433,6 +2973,11 @@
         <v>1.5</v>
       </c>
       <c r="E112" s="7" t="inlineStr"/>
+      <c r="F112" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="7" t="inlineStr"/>
@@ -2450,6 +2995,11 @@
         <v>1.5</v>
       </c>
       <c r="E113" s="7" t="inlineStr"/>
+      <c r="F113" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="7" t="inlineStr"/>
@@ -2467,6 +3017,11 @@
         <v>1.5</v>
       </c>
       <c r="E114" s="7" t="inlineStr"/>
+      <c r="F114" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="7" t="inlineStr"/>
@@ -2484,6 +3039,11 @@
         <v>1.5</v>
       </c>
       <c r="E115" s="7" t="inlineStr"/>
+      <c r="F115" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="7" t="inlineStr"/>
@@ -2501,6 +3061,11 @@
         <v>1.5</v>
       </c>
       <c r="E116" s="7" t="inlineStr"/>
+      <c r="F116" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="7" t="inlineStr"/>
@@ -2518,6 +3083,11 @@
         <v>1.5</v>
       </c>
       <c r="E117" s="7" t="inlineStr"/>
+      <c r="F117" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="7" t="inlineStr"/>
@@ -2535,6 +3105,11 @@
         <v>1.5</v>
       </c>
       <c r="E118" s="7" t="inlineStr"/>
+      <c r="F118" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="7" t="inlineStr"/>
@@ -2552,6 +3127,11 @@
         <v>1.5</v>
       </c>
       <c r="E119" s="7" t="inlineStr"/>
+      <c r="F119" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="7" t="inlineStr"/>
@@ -2569,6 +3149,11 @@
         <v>1.5</v>
       </c>
       <c r="E120" s="7" t="inlineStr"/>
+      <c r="F120" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Nice to Have grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="7" t="inlineStr"/>
@@ -2586,6 +3171,11 @@
         <v>1.5</v>
       </c>
       <c r="E121" s="7" t="inlineStr"/>
+      <c r="F121" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Nice to Have grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="6" t="inlineStr">
@@ -2607,6 +3197,11 @@
         <v>1.5</v>
       </c>
       <c r="E122" s="7" t="inlineStr"/>
+      <c r="F122" s="8" t="inlineStr">
+        <is>
+          <t>Aggregation pipeline optimization in Dashboard Backend to reduce database load</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="7" t="inlineStr"/>
@@ -2624,6 +3219,11 @@
         <v>1.5</v>
       </c>
       <c r="E123" s="7" t="inlineStr"/>
+      <c r="F123" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="7" t="inlineStr"/>
@@ -2641,6 +3241,11 @@
         <v>1.5</v>
       </c>
       <c r="E124" s="7" t="inlineStr"/>
+      <c r="F124" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Nice to Have grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="6" t="inlineStr">
@@ -2662,6 +3267,11 @@
         <v>1.5</v>
       </c>
       <c r="E125" s="7" t="inlineStr"/>
+      <c r="F125" s="8" t="inlineStr">
+        <is>
+          <t>Caching layer implementation in Dashboard Backend for frequently accessed data</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="7" t="inlineStr"/>
@@ -2679,6 +3289,11 @@
         <v>1.5</v>
       </c>
       <c r="E126" s="7" t="inlineStr"/>
+      <c r="F126" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="7" t="inlineStr"/>
@@ -2696,6 +3311,11 @@
         <v>1.5</v>
       </c>
       <c r="E127" s="7" t="inlineStr"/>
+      <c r="F127" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="7" t="inlineStr"/>
@@ -2713,6 +3333,11 @@
         <v>1.5</v>
       </c>
       <c r="E128" s="7" t="inlineStr"/>
+      <c r="F128" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="7" t="inlineStr"/>
@@ -2730,6 +3355,11 @@
         <v>1.5</v>
       </c>
       <c r="E129" s="7" t="inlineStr"/>
+      <c r="F129" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="7" t="inlineStr"/>
@@ -2747,6 +3377,11 @@
         <v>1.5</v>
       </c>
       <c r="E130" s="7" t="inlineStr"/>
+      <c r="F130" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="7" t="inlineStr"/>
@@ -2764,6 +3399,11 @@
         <v>1.5</v>
       </c>
       <c r="E131" s="7" t="inlineStr"/>
+      <c r="F131" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="7" t="inlineStr"/>
@@ -2781,6 +3421,11 @@
         <v>1.5</v>
       </c>
       <c r="E132" s="7" t="inlineStr"/>
+      <c r="F132" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="7" t="inlineStr"/>
@@ -2798,6 +3443,11 @@
         <v>1.5</v>
       </c>
       <c r="E133" s="7" t="inlineStr"/>
+      <c r="F133" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Cross-Repo grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="7" t="inlineStr"/>
@@ -2815,6 +3465,11 @@
         <v>1.5</v>
       </c>
       <c r="E134" s="7" t="inlineStr"/>
+      <c r="F134" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Nice to Have grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="7" t="inlineStr"/>
@@ -2832,6 +3487,11 @@
         <v>1</v>
       </c>
       <c r="E135" s="7" t="inlineStr"/>
+      <c r="F135" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="7" t="inlineStr"/>
@@ -2849,6 +3509,11 @@
         <v>1</v>
       </c>
       <c r="E136" s="7" t="inlineStr"/>
+      <c r="F136" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="7" t="inlineStr"/>
@@ -2866,6 +3531,11 @@
         <v>1</v>
       </c>
       <c r="E137" s="7" t="inlineStr"/>
+      <c r="F137" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="7" t="inlineStr"/>
@@ -2883,6 +3553,11 @@
         <v>1</v>
       </c>
       <c r="E138" s="7" t="inlineStr"/>
+      <c r="F138" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="7" t="inlineStr"/>
@@ -2900,6 +3575,11 @@
         <v>1</v>
       </c>
       <c r="E139" s="7" t="inlineStr"/>
+      <c r="F139" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="7" t="inlineStr"/>
@@ -2917,6 +3597,11 @@
         <v>1</v>
       </c>
       <c r="E140" s="7" t="inlineStr"/>
+      <c r="F140" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="7" t="inlineStr"/>
@@ -2934,6 +3619,11 @@
         <v>1</v>
       </c>
       <c r="E141" s="7" t="inlineStr"/>
+      <c r="F141" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="7" t="inlineStr"/>
@@ -2951,6 +3641,11 @@
         <v>1</v>
       </c>
       <c r="E142" s="7" t="inlineStr"/>
+      <c r="F142" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="6" t="inlineStr">
@@ -2972,6 +3667,11 @@
         <v>1.5</v>
       </c>
       <c r="E143" s="7" t="inlineStr"/>
+      <c r="F143" s="8" t="inlineStr">
+        <is>
+          <t>Performance monitoring and profiling setup to identify bottlenecks</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="7" t="inlineStr"/>
@@ -2989,6 +3689,11 @@
         <v>1.5</v>
       </c>
       <c r="E144" s="7" t="inlineStr"/>
+      <c r="F144" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="7" t="inlineStr"/>
@@ -3006,6 +3711,11 @@
         <v>1.5</v>
       </c>
       <c r="E145" s="7" t="inlineStr"/>
+      <c r="F145" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="7" t="inlineStr"/>
@@ -3023,6 +3733,11 @@
         <v>1.5</v>
       </c>
       <c r="E146" s="7" t="inlineStr"/>
+      <c r="F146" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="7" t="inlineStr"/>
@@ -3040,6 +3755,11 @@
         <v>1.5</v>
       </c>
       <c r="E147" s="7" t="inlineStr"/>
+      <c r="F147" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="7" t="inlineStr"/>
@@ -3057,6 +3777,11 @@
         <v>1.5</v>
       </c>
       <c r="E148" s="7" t="inlineStr"/>
+      <c r="F148" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="7" t="inlineStr"/>
@@ -3074,6 +3799,11 @@
         <v>1.5</v>
       </c>
       <c r="E149" s="7" t="inlineStr"/>
+      <c r="F149" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="7" t="inlineStr"/>
@@ -3091,6 +3821,11 @@
         <v>1.5</v>
       </c>
       <c r="E150" s="7" t="inlineStr"/>
+      <c r="F150" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="7" t="inlineStr"/>
@@ -3108,6 +3843,11 @@
         <v>1.5</v>
       </c>
       <c r="E151" s="7" t="inlineStr"/>
+      <c r="F151" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="7" t="inlineStr"/>
@@ -3125,6 +3865,11 @@
         <v>1.5</v>
       </c>
       <c r="E152" s="7" t="inlineStr"/>
+      <c r="F152" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="7" t="inlineStr"/>
@@ -3142,6 +3887,11 @@
         <v>1.5</v>
       </c>
       <c r="E153" s="7" t="inlineStr"/>
+      <c r="F153" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Cross-Repo grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="7" t="inlineStr"/>
@@ -3159,6 +3909,11 @@
         <v>1.5</v>
       </c>
       <c r="E154" s="7" t="inlineStr"/>
+      <c r="F154" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Nice to Have grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="7" t="inlineStr"/>
@@ -3176,6 +3931,11 @@
         <v>1</v>
       </c>
       <c r="E155" s="7" t="inlineStr"/>
+      <c r="F155" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="6" t="inlineStr">
@@ -3197,6 +3957,11 @@
         <v>2.5</v>
       </c>
       <c r="E156" s="7" t="inlineStr"/>
+      <c r="F156" s="8" t="inlineStr">
+        <is>
+          <t>Security monitoring telemetry for detecting and alerting on security events</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="6" t="inlineStr">
@@ -3218,6 +3983,11 @@
         <v>1.5</v>
       </c>
       <c r="E157" s="7" t="inlineStr"/>
+      <c r="F157" s="8" t="inlineStr">
+        <is>
+          <t>Frontend/application performance monitoring in Sharapp for user experience tracking</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="7" t="inlineStr"/>
@@ -3235,6 +4005,11 @@
         <v>1.5</v>
       </c>
       <c r="E158" s="7" t="inlineStr"/>
+      <c r="F158" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Cross-Repo grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="7" t="inlineStr"/>
@@ -3252,6 +4027,11 @@
         <v>1.5</v>
       </c>
       <c r="E159" s="7" t="inlineStr"/>
+      <c r="F159" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Cross-Repo grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="7" t="inlineStr"/>
@@ -3269,6 +4049,11 @@
         <v>1.5</v>
       </c>
       <c r="E160" s="7" t="inlineStr"/>
+      <c r="F160" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Nice to Have grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="7" t="inlineStr"/>
@@ -3286,6 +4071,11 @@
         <v>1.5</v>
       </c>
       <c r="E161" s="7" t="inlineStr"/>
+      <c r="F161" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Nice to Have grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="6" t="inlineStr">
@@ -3307,6 +4097,11 @@
         <v>1</v>
       </c>
       <c r="E162" s="7" t="inlineStr"/>
+      <c r="F162" s="8" t="inlineStr">
+        <is>
+          <t>General monitoring setup in Mobile Passenger for operational visibility</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="7" t="inlineStr"/>
@@ -3324,6 +4119,11 @@
         <v>1</v>
       </c>
       <c r="E163" s="7" t="inlineStr"/>
+      <c r="F163" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="7" t="inlineStr"/>
@@ -3341,6 +4141,11 @@
         <v>1</v>
       </c>
       <c r="E164" s="7" t="inlineStr"/>
+      <c r="F164" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="7" t="inlineStr"/>
@@ -3358,6 +4163,11 @@
         <v>1</v>
       </c>
       <c r="E165" s="7" t="inlineStr"/>
+      <c r="F165" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="7" t="inlineStr"/>
@@ -3375,6 +4185,11 @@
         <v>1</v>
       </c>
       <c r="E166" s="7" t="inlineStr"/>
+      <c r="F166" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="3" t="inlineStr">
@@ -3386,6 +4201,7 @@
       <c r="C167" s="4" t="inlineStr"/>
       <c r="D167" s="5" t="inlineStr"/>
       <c r="E167" s="3" t="inlineStr"/>
+      <c r="F167" s="4" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="6" t="inlineStr">
@@ -3407,6 +4223,11 @@
         <v>1</v>
       </c>
       <c r="E168" s="7" t="inlineStr"/>
+      <c r="F168" s="8" t="inlineStr">
+        <is>
+          <t>Backend UI/UX issue in Mobile Backend affecting API responses and data formatting</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="7" t="inlineStr"/>
@@ -3424,6 +4245,11 @@
         <v>1</v>
       </c>
       <c r="E169" s="7" t="inlineStr"/>
+      <c r="F169" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="7" t="inlineStr"/>
@@ -3441,6 +4267,11 @@
         <v>1</v>
       </c>
       <c r="E170" s="7" t="inlineStr"/>
+      <c r="F170" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="7" t="inlineStr"/>
@@ -3458,6 +4289,11 @@
         <v>1</v>
       </c>
       <c r="E171" s="7" t="inlineStr"/>
+      <c r="F171" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="7" t="inlineStr"/>
@@ -3475,6 +4311,11 @@
         <v>1</v>
       </c>
       <c r="E172" s="7" t="inlineStr"/>
+      <c r="F172" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="7" t="inlineStr"/>
@@ -3492,6 +4333,11 @@
         <v>1</v>
       </c>
       <c r="E173" s="7" t="inlineStr"/>
+      <c r="F173" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="7" t="inlineStr"/>
@@ -3509,6 +4355,11 @@
         <v>1</v>
       </c>
       <c r="E174" s="7" t="inlineStr"/>
+      <c r="F174" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="7" t="inlineStr"/>
@@ -3526,6 +4377,11 @@
         <v>1</v>
       </c>
       <c r="E175" s="7" t="inlineStr"/>
+      <c r="F175" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="7" t="inlineStr"/>
@@ -3543,6 +4399,11 @@
         <v>1</v>
       </c>
       <c r="E176" s="7" t="inlineStr"/>
+      <c r="F176" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="7" t="inlineStr"/>
@@ -3560,6 +4421,11 @@
         <v>1</v>
       </c>
       <c r="E177" s="7" t="inlineStr"/>
+      <c r="F177" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="7" t="inlineStr"/>
@@ -3577,6 +4443,11 @@
         <v>1</v>
       </c>
       <c r="E178" s="7" t="inlineStr"/>
+      <c r="F178" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="7" t="inlineStr"/>
@@ -3594,6 +4465,11 @@
         <v>1</v>
       </c>
       <c r="E179" s="7" t="inlineStr"/>
+      <c r="F179" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="7" t="inlineStr"/>
@@ -3611,6 +4487,11 @@
         <v>1</v>
       </c>
       <c r="E180" s="7" t="inlineStr"/>
+      <c r="F180" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="7" t="inlineStr"/>
@@ -3628,6 +4509,11 @@
         <v>1</v>
       </c>
       <c r="E181" s="7" t="inlineStr"/>
+      <c r="F181" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="7" t="inlineStr"/>
@@ -3645,6 +4531,11 @@
         <v>1</v>
       </c>
       <c r="E182" s="7" t="inlineStr"/>
+      <c r="F182" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="7" t="inlineStr"/>
@@ -3662,6 +4553,11 @@
         <v>1</v>
       </c>
       <c r="E183" s="7" t="inlineStr"/>
+      <c r="F183" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="7" t="inlineStr"/>
@@ -3679,6 +4575,11 @@
         <v>1</v>
       </c>
       <c r="E184" s="7" t="inlineStr"/>
+      <c r="F184" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="7" t="inlineStr"/>
@@ -3696,6 +4597,11 @@
         <v>1</v>
       </c>
       <c r="E185" s="7" t="inlineStr"/>
+      <c r="F185" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="7" t="inlineStr"/>
@@ -3713,6 +4619,11 @@
         <v>1</v>
       </c>
       <c r="E186" s="7" t="inlineStr"/>
+      <c r="F186" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="7" t="inlineStr"/>
@@ -3730,6 +4641,11 @@
         <v>1</v>
       </c>
       <c r="E187" s="7" t="inlineStr"/>
+      <c r="F187" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="7" t="inlineStr"/>
@@ -3747,6 +4663,11 @@
         <v>1</v>
       </c>
       <c r="E188" s="7" t="inlineStr"/>
+      <c r="F188" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="7" t="inlineStr"/>
@@ -3764,6 +4685,11 @@
         <v>1</v>
       </c>
       <c r="E189" s="7" t="inlineStr"/>
+      <c r="F189" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="7" t="inlineStr"/>
@@ -3781,6 +4707,11 @@
         <v>1</v>
       </c>
       <c r="E190" s="7" t="inlineStr"/>
+      <c r="F190" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="7" t="inlineStr"/>
@@ -3798,6 +4729,11 @@
         <v>1</v>
       </c>
       <c r="E191" s="7" t="inlineStr"/>
+      <c r="F191" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="7" t="inlineStr"/>
@@ -3815,6 +4751,11 @@
         <v>1</v>
       </c>
       <c r="E192" s="7" t="inlineStr"/>
+      <c r="F192" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="7" t="inlineStr"/>
@@ -3832,6 +4773,11 @@
         <v>1</v>
       </c>
       <c r="E193" s="7" t="inlineStr"/>
+      <c r="F193" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="6" t="inlineStr">
@@ -3853,6 +4799,11 @@
         <v>1</v>
       </c>
       <c r="E194" s="7" t="inlineStr"/>
+      <c r="F194" s="8" t="inlineStr">
+        <is>
+          <t>Dashboard Frontend UI/UX improvement requiring component updates and styling fixes</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="7" t="inlineStr"/>
@@ -3870,6 +4821,11 @@
         <v>1</v>
       </c>
       <c r="E195" s="7" t="inlineStr"/>
+      <c r="F195" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="7" t="inlineStr"/>
@@ -3887,6 +4843,11 @@
         <v>1</v>
       </c>
       <c r="E196" s="7" t="inlineStr"/>
+      <c r="F196" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="7" t="inlineStr"/>
@@ -3904,6 +4865,11 @@
         <v>1</v>
       </c>
       <c r="E197" s="7" t="inlineStr"/>
+      <c r="F197" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="7" t="inlineStr"/>
@@ -3921,6 +4887,11 @@
         <v>1</v>
       </c>
       <c r="E198" s="7" t="inlineStr"/>
+      <c r="F198" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="7" t="inlineStr"/>
@@ -3938,6 +4909,11 @@
         <v>0.5</v>
       </c>
       <c r="E199" s="7" t="inlineStr"/>
+      <c r="F199" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="7" t="inlineStr"/>
@@ -3955,6 +4931,11 @@
         <v>2</v>
       </c>
       <c r="E200" s="7" t="inlineStr"/>
+      <c r="F200" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="7" t="inlineStr"/>
@@ -3972,6 +4953,11 @@
         <v>1</v>
       </c>
       <c r="E201" s="7" t="inlineStr"/>
+      <c r="F201" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="7" t="inlineStr"/>
@@ -3989,6 +4975,11 @@
         <v>1</v>
       </c>
       <c r="E202" s="7" t="inlineStr"/>
+      <c r="F202" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="7" t="inlineStr"/>
@@ -4006,6 +4997,11 @@
         <v>1</v>
       </c>
       <c r="E203" s="7" t="inlineStr"/>
+      <c r="F203" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="7" t="inlineStr"/>
@@ -4023,6 +5019,11 @@
         <v>1</v>
       </c>
       <c r="E204" s="7" t="inlineStr"/>
+      <c r="F204" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="7" t="inlineStr"/>
@@ -4040,6 +5041,11 @@
         <v>1</v>
       </c>
       <c r="E205" s="7" t="inlineStr"/>
+      <c r="F205" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="7" t="inlineStr"/>
@@ -4057,6 +5063,11 @@
         <v>1</v>
       </c>
       <c r="E206" s="7" t="inlineStr"/>
+      <c r="F206" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="7" t="inlineStr"/>
@@ -4074,6 +5085,11 @@
         <v>1</v>
       </c>
       <c r="E207" s="7" t="inlineStr"/>
+      <c r="F207" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="7" t="inlineStr"/>
@@ -4091,6 +5107,11 @@
         <v>1</v>
       </c>
       <c r="E208" s="7" t="inlineStr"/>
+      <c r="F208" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="7" t="inlineStr"/>
@@ -4108,6 +5129,11 @@
         <v>1</v>
       </c>
       <c r="E209" s="7" t="inlineStr"/>
+      <c r="F209" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="7" t="inlineStr"/>
@@ -4125,6 +5151,11 @@
         <v>1</v>
       </c>
       <c r="E210" s="7" t="inlineStr"/>
+      <c r="F210" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="7" t="inlineStr"/>
@@ -4142,6 +5173,11 @@
         <v>1</v>
       </c>
       <c r="E211" s="7" t="inlineStr"/>
+      <c r="F211" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="7" t="inlineStr"/>
@@ -4159,6 +5195,11 @@
         <v>1</v>
       </c>
       <c r="E212" s="7" t="inlineStr"/>
+      <c r="F212" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="7" t="inlineStr"/>
@@ -4176,6 +5217,11 @@
         <v>1</v>
       </c>
       <c r="E213" s="7" t="inlineStr"/>
+      <c r="F213" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="7" t="inlineStr"/>
@@ -4193,6 +5239,11 @@
         <v>0.5</v>
       </c>
       <c r="E214" s="7" t="inlineStr"/>
+      <c r="F214" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="7" t="inlineStr"/>
@@ -4210,6 +5261,11 @@
         <v>1</v>
       </c>
       <c r="E215" s="7" t="inlineStr"/>
+      <c r="F215" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="7" t="inlineStr"/>
@@ -4227,6 +5283,11 @@
         <v>1</v>
       </c>
       <c r="E216" s="7" t="inlineStr"/>
+      <c r="F216" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="7" t="inlineStr"/>
@@ -4244,6 +5305,11 @@
         <v>1</v>
       </c>
       <c r="E217" s="7" t="inlineStr"/>
+      <c r="F217" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="7" t="inlineStr"/>
@@ -4261,6 +5327,11 @@
         <v>0.5</v>
       </c>
       <c r="E218" s="7" t="inlineStr"/>
+      <c r="F218" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="7" t="inlineStr"/>
@@ -4278,6 +5349,11 @@
         <v>0.5</v>
       </c>
       <c r="E219" s="7" t="inlineStr"/>
+      <c r="F219" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="7" t="inlineStr"/>
@@ -4295,6 +5371,11 @@
         <v>1</v>
       </c>
       <c r="E220" s="7" t="inlineStr"/>
+      <c r="F220" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="6" t="inlineStr">
@@ -4316,6 +5397,11 @@
         <v>1</v>
       </c>
       <c r="E221" s="7" t="inlineStr"/>
+      <c r="F221" s="8" t="inlineStr">
+        <is>
+          <t>Sharapp UI/UX improvement requiring layout and interaction enhancements</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="7" t="inlineStr"/>
@@ -4333,6 +5419,11 @@
         <v>1</v>
       </c>
       <c r="E222" s="7" t="inlineStr"/>
+      <c r="F222" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="7" t="inlineStr"/>
@@ -4350,6 +5441,11 @@
         <v>1</v>
       </c>
       <c r="E223" s="7" t="inlineStr"/>
+      <c r="F223" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="7" t="inlineStr"/>
@@ -4367,6 +5463,11 @@
         <v>1</v>
       </c>
       <c r="E224" s="7" t="inlineStr"/>
+      <c r="F224" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="7" t="inlineStr"/>
@@ -4384,6 +5485,11 @@
         <v>1</v>
       </c>
       <c r="E225" s="7" t="inlineStr"/>
+      <c r="F225" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="7" t="inlineStr"/>
@@ -4401,6 +5507,11 @@
         <v>1</v>
       </c>
       <c r="E226" s="7" t="inlineStr"/>
+      <c r="F226" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="7" t="inlineStr"/>
@@ -4418,6 +5529,11 @@
         <v>1</v>
       </c>
       <c r="E227" s="7" t="inlineStr"/>
+      <c r="F227" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="7" t="inlineStr"/>
@@ -4435,6 +5551,11 @@
         <v>1</v>
       </c>
       <c r="E228" s="7" t="inlineStr"/>
+      <c r="F228" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="7" t="inlineStr"/>
@@ -4452,6 +5573,11 @@
         <v>1</v>
       </c>
       <c r="E229" s="7" t="inlineStr"/>
+      <c r="F229" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="7" t="inlineStr"/>
@@ -4469,6 +5595,11 @@
         <v>1</v>
       </c>
       <c r="E230" s="7" t="inlineStr"/>
+      <c r="F230" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="7" t="inlineStr"/>
@@ -4486,6 +5617,11 @@
         <v>1</v>
       </c>
       <c r="E231" s="7" t="inlineStr"/>
+      <c r="F231" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="7" t="inlineStr"/>
@@ -4503,6 +5639,11 @@
         <v>1</v>
       </c>
       <c r="E232" s="7" t="inlineStr"/>
+      <c r="F232" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="7" t="inlineStr"/>
@@ -4520,6 +5661,11 @@
         <v>1</v>
       </c>
       <c r="E233" s="7" t="inlineStr"/>
+      <c r="F233" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="7" t="inlineStr"/>
@@ -4537,6 +5683,11 @@
         <v>0.5</v>
       </c>
       <c r="E234" s="7" t="inlineStr"/>
+      <c r="F234" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="7" t="inlineStr"/>
@@ -4554,6 +5705,11 @@
         <v>1</v>
       </c>
       <c r="E235" s="7" t="inlineStr"/>
+      <c r="F235" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="6" t="inlineStr">
@@ -4575,6 +5731,11 @@
         <v>1</v>
       </c>
       <c r="E236" s="7" t="inlineStr"/>
+      <c r="F236" s="8" t="inlineStr">
+        <is>
+          <t>Mobile Passenger UI/UX issue requiring screen layout and navigation improvements</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="7" t="inlineStr"/>
@@ -4592,6 +5753,11 @@
         <v>2</v>
       </c>
       <c r="E237" s="7" t="inlineStr"/>
+      <c r="F237" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="7" t="inlineStr"/>
@@ -4609,6 +5775,11 @@
         <v>1</v>
       </c>
       <c r="E238" s="7" t="inlineStr"/>
+      <c r="F238" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="7" t="inlineStr"/>
@@ -4626,6 +5797,11 @@
         <v>1</v>
       </c>
       <c r="E239" s="7" t="inlineStr"/>
+      <c r="F239" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="7" t="inlineStr"/>
@@ -4643,6 +5819,11 @@
         <v>1</v>
       </c>
       <c r="E240" s="7" t="inlineStr"/>
+      <c r="F240" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="7" t="inlineStr"/>
@@ -4660,6 +5841,11 @@
         <v>1</v>
       </c>
       <c r="E241" s="7" t="inlineStr"/>
+      <c r="F241" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="7" t="inlineStr"/>
@@ -4677,6 +5863,11 @@
         <v>1</v>
       </c>
       <c r="E242" s="7" t="inlineStr"/>
+      <c r="F242" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="7" t="inlineStr"/>
@@ -4694,6 +5885,11 @@
         <v>2</v>
       </c>
       <c r="E243" s="7" t="inlineStr"/>
+      <c r="F243" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="7" t="inlineStr"/>
@@ -4711,6 +5907,11 @@
         <v>1</v>
       </c>
       <c r="E244" s="7" t="inlineStr"/>
+      <c r="F244" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="7" t="inlineStr"/>
@@ -4728,6 +5929,11 @@
         <v>1</v>
       </c>
       <c r="E245" s="7" t="inlineStr"/>
+      <c r="F245" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="7" t="inlineStr"/>
@@ -4745,6 +5951,11 @@
         <v>1</v>
       </c>
       <c r="E246" s="7" t="inlineStr"/>
+      <c r="F246" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="7" t="inlineStr"/>
@@ -4762,6 +5973,11 @@
         <v>1</v>
       </c>
       <c r="E247" s="7" t="inlineStr"/>
+      <c r="F247" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="7" t="inlineStr"/>
@@ -4779,6 +5995,11 @@
         <v>1</v>
       </c>
       <c r="E248" s="7" t="inlineStr"/>
+      <c r="F248" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="7" t="inlineStr"/>
@@ -4796,6 +6017,11 @@
         <v>1</v>
       </c>
       <c r="E249" s="7" t="inlineStr"/>
+      <c r="F249" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="7" t="inlineStr"/>
@@ -4813,6 +6039,11 @@
         <v>1</v>
       </c>
       <c r="E250" s="7" t="inlineStr"/>
+      <c r="F250" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="7" t="inlineStr"/>
@@ -4830,6 +6061,11 @@
         <v>2</v>
       </c>
       <c r="E251" s="7" t="inlineStr"/>
+      <c r="F251" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="7" t="inlineStr"/>
@@ -4847,6 +6083,11 @@
         <v>1</v>
       </c>
       <c r="E252" s="7" t="inlineStr"/>
+      <c r="F252" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="7" t="inlineStr"/>
@@ -4864,6 +6105,11 @@
         <v>1</v>
       </c>
       <c r="E253" s="7" t="inlineStr"/>
+      <c r="F253" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="7" t="inlineStr"/>
@@ -4881,6 +6127,11 @@
         <v>1</v>
       </c>
       <c r="E254" s="7" t="inlineStr"/>
+      <c r="F254" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="7" t="inlineStr"/>
@@ -4898,6 +6149,11 @@
         <v>1</v>
       </c>
       <c r="E255" s="7" t="inlineStr"/>
+      <c r="F255" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="7" t="inlineStr"/>
@@ -4915,6 +6171,11 @@
         <v>1</v>
       </c>
       <c r="E256" s="7" t="inlineStr"/>
+      <c r="F256" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="7" t="inlineStr"/>
@@ -4932,6 +6193,11 @@
         <v>1</v>
       </c>
       <c r="E257" s="7" t="inlineStr"/>
+      <c r="F257" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="7" t="inlineStr"/>
@@ -4949,6 +6215,11 @@
         <v>1</v>
       </c>
       <c r="E258" s="7" t="inlineStr"/>
+      <c r="F258" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="7" t="inlineStr"/>
@@ -4966,6 +6237,11 @@
         <v>1</v>
       </c>
       <c r="E259" s="7" t="inlineStr"/>
+      <c r="F259" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="7" t="inlineStr"/>
@@ -4983,6 +6259,11 @@
         <v>1</v>
       </c>
       <c r="E260" s="7" t="inlineStr"/>
+      <c r="F260" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="7" t="inlineStr"/>
@@ -5000,6 +6281,11 @@
         <v>1</v>
       </c>
       <c r="E261" s="7" t="inlineStr"/>
+      <c r="F261" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="7" t="inlineStr"/>
@@ -5017,6 +6303,11 @@
         <v>0.5</v>
       </c>
       <c r="E262" s="7" t="inlineStr"/>
+      <c r="F262" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="7" t="inlineStr"/>
@@ -5034,6 +6325,11 @@
         <v>1</v>
       </c>
       <c r="E263" s="7" t="inlineStr"/>
+      <c r="F263" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="7" t="inlineStr"/>
@@ -5051,6 +6347,11 @@
         <v>1</v>
       </c>
       <c r="E264" s="7" t="inlineStr"/>
+      <c r="F264" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="7" t="inlineStr"/>
@@ -5068,6 +6369,11 @@
         <v>2</v>
       </c>
       <c r="E265" s="7" t="inlineStr"/>
+      <c r="F265" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="7" t="inlineStr"/>
@@ -5085,6 +6391,11 @@
         <v>1</v>
       </c>
       <c r="E266" s="7" t="inlineStr"/>
+      <c r="F266" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="7" t="inlineStr"/>
@@ -5102,6 +6413,11 @@
         <v>1</v>
       </c>
       <c r="E267" s="7" t="inlineStr"/>
+      <c r="F267" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="7" t="inlineStr"/>
@@ -5119,6 +6435,11 @@
         <v>1</v>
       </c>
       <c r="E268" s="7" t="inlineStr"/>
+      <c r="F268" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="7" t="inlineStr"/>
@@ -5136,6 +6457,11 @@
         <v>1</v>
       </c>
       <c r="E269" s="7" t="inlineStr"/>
+      <c r="F269" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="7" t="inlineStr"/>
@@ -5153,6 +6479,11 @@
         <v>1</v>
       </c>
       <c r="E270" s="7" t="inlineStr"/>
+      <c r="F270" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="7" t="inlineStr"/>
@@ -5170,6 +6501,11 @@
         <v>1</v>
       </c>
       <c r="E271" s="7" t="inlineStr"/>
+      <c r="F271" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="7" t="inlineStr"/>
@@ -5187,6 +6523,11 @@
         <v>1</v>
       </c>
       <c r="E272" s="7" t="inlineStr"/>
+      <c r="F272" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="7" t="inlineStr"/>
@@ -5204,6 +6545,11 @@
         <v>1</v>
       </c>
       <c r="E273" s="7" t="inlineStr"/>
+      <c r="F273" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="7" t="inlineStr"/>
@@ -5221,6 +6567,11 @@
         <v>1</v>
       </c>
       <c r="E274" s="7" t="inlineStr"/>
+      <c r="F274" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="7" t="inlineStr"/>
@@ -5238,6 +6589,11 @@
         <v>1</v>
       </c>
       <c r="E275" s="7" t="inlineStr"/>
+      <c r="F275" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="7" t="inlineStr"/>
@@ -5255,6 +6611,11 @@
         <v>1</v>
       </c>
       <c r="E276" s="7" t="inlineStr"/>
+      <c r="F276" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="7" t="inlineStr"/>
@@ -5272,6 +6633,11 @@
         <v>1</v>
       </c>
       <c r="E277" s="7" t="inlineStr"/>
+      <c r="F277" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="7" t="inlineStr"/>
@@ -5289,6 +6655,11 @@
         <v>1</v>
       </c>
       <c r="E278" s="7" t="inlineStr"/>
+      <c r="F278" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="7" t="inlineStr"/>
@@ -5306,6 +6677,11 @@
         <v>1</v>
       </c>
       <c r="E279" s="7" t="inlineStr"/>
+      <c r="F279" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="7" t="inlineStr"/>
@@ -5323,6 +6699,11 @@
         <v>1</v>
       </c>
       <c r="E280" s="7" t="inlineStr"/>
+      <c r="F280" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="7" t="inlineStr"/>
@@ -5340,6 +6721,11 @@
         <v>1</v>
       </c>
       <c r="E281" s="7" t="inlineStr"/>
+      <c r="F281" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="7" t="inlineStr"/>
@@ -5357,6 +6743,11 @@
         <v>1</v>
       </c>
       <c r="E282" s="7" t="inlineStr"/>
+      <c r="F282" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="7" t="inlineStr"/>
@@ -5374,6 +6765,11 @@
         <v>1</v>
       </c>
       <c r="E283" s="7" t="inlineStr"/>
+      <c r="F283" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="7" t="inlineStr"/>
@@ -5391,6 +6787,11 @@
         <v>1</v>
       </c>
       <c r="E284" s="7" t="inlineStr"/>
+      <c r="F284" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="7" t="inlineStr"/>
@@ -5408,6 +6809,11 @@
         <v>1</v>
       </c>
       <c r="E285" s="7" t="inlineStr"/>
+      <c r="F285" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="7" t="inlineStr"/>
@@ -5425,6 +6831,11 @@
         <v>1</v>
       </c>
       <c r="E286" s="7" t="inlineStr"/>
+      <c r="F286" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="7" t="inlineStr"/>
@@ -5442,6 +6853,11 @@
         <v>1</v>
       </c>
       <c r="E287" s="7" t="inlineStr"/>
+      <c r="F287" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="7" t="inlineStr"/>
@@ -5459,6 +6875,11 @@
         <v>1</v>
       </c>
       <c r="E288" s="7" t="inlineStr"/>
+      <c r="F288" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="7" t="inlineStr"/>
@@ -5476,6 +6897,11 @@
         <v>1</v>
       </c>
       <c r="E289" s="7" t="inlineStr"/>
+      <c r="F289" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="7" t="inlineStr"/>
@@ -5493,6 +6919,11 @@
         <v>1</v>
       </c>
       <c r="E290" s="7" t="inlineStr"/>
+      <c r="F290" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="7" t="inlineStr"/>
@@ -5510,6 +6941,11 @@
         <v>1</v>
       </c>
       <c r="E291" s="7" t="inlineStr"/>
+      <c r="F291" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="7" t="inlineStr"/>
@@ -5527,6 +6963,11 @@
         <v>1</v>
       </c>
       <c r="E292" s="7" t="inlineStr"/>
+      <c r="F292" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="7" t="inlineStr"/>
@@ -5544,6 +6985,11 @@
         <v>1</v>
       </c>
       <c r="E293" s="7" t="inlineStr"/>
+      <c r="F293" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="7" t="inlineStr"/>
@@ -5561,6 +7007,11 @@
         <v>1</v>
       </c>
       <c r="E294" s="7" t="inlineStr"/>
+      <c r="F294" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="7" t="inlineStr"/>
@@ -5578,6 +7029,11 @@
         <v>1</v>
       </c>
       <c r="E295" s="7" t="inlineStr"/>
+      <c r="F295" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="7" t="inlineStr"/>
@@ -5595,6 +7051,11 @@
         <v>1</v>
       </c>
       <c r="E296" s="7" t="inlineStr"/>
+      <c r="F296" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="7" t="inlineStr"/>
@@ -5612,6 +7073,11 @@
         <v>1</v>
       </c>
       <c r="E297" s="7" t="inlineStr"/>
+      <c r="F297" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="6" t="inlineStr">
@@ -5633,6 +7099,11 @@
         <v>1</v>
       </c>
       <c r="E298" s="7" t="inlineStr"/>
+      <c r="F298" s="8" t="inlineStr">
+        <is>
+          <t>Mobile Driver UI/UX issue requiring interface improvements for driver workflow</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="7" t="inlineStr"/>
@@ -5650,6 +7121,11 @@
         <v>1</v>
       </c>
       <c r="E299" s="7" t="inlineStr"/>
+      <c r="F299" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="7" t="inlineStr"/>
@@ -5667,6 +7143,11 @@
         <v>1</v>
       </c>
       <c r="E300" s="7" t="inlineStr"/>
+      <c r="F300" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="7" t="inlineStr"/>
@@ -5684,6 +7165,11 @@
         <v>1</v>
       </c>
       <c r="E301" s="7" t="inlineStr"/>
+      <c r="F301" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="7" t="inlineStr"/>
@@ -5701,6 +7187,11 @@
         <v>1</v>
       </c>
       <c r="E302" s="7" t="inlineStr"/>
+      <c r="F302" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="7" t="inlineStr"/>
@@ -5718,6 +7209,11 @@
         <v>1</v>
       </c>
       <c r="E303" s="7" t="inlineStr"/>
+      <c r="F303" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="7" t="inlineStr"/>
@@ -5735,6 +7231,11 @@
         <v>1</v>
       </c>
       <c r="E304" s="7" t="inlineStr"/>
+      <c r="F304" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="7" t="inlineStr"/>
@@ -5752,6 +7253,11 @@
         <v>1</v>
       </c>
       <c r="E305" s="7" t="inlineStr"/>
+      <c r="F305" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="7" t="inlineStr"/>
@@ -5769,6 +7275,11 @@
         <v>1</v>
       </c>
       <c r="E306" s="7" t="inlineStr"/>
+      <c r="F306" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="7" t="inlineStr"/>
@@ -5786,6 +7297,11 @@
         <v>1</v>
       </c>
       <c r="E307" s="7" t="inlineStr"/>
+      <c r="F307" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="7" t="inlineStr"/>
@@ -5803,6 +7319,11 @@
         <v>1</v>
       </c>
       <c r="E308" s="7" t="inlineStr"/>
+      <c r="F308" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="7" t="inlineStr"/>
@@ -5820,6 +7341,11 @@
         <v>1</v>
       </c>
       <c r="E309" s="7" t="inlineStr"/>
+      <c r="F309" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="7" t="inlineStr"/>
@@ -5837,6 +7363,11 @@
         <v>1</v>
       </c>
       <c r="E310" s="7" t="inlineStr"/>
+      <c r="F310" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="7" t="inlineStr"/>
@@ -5854,6 +7385,11 @@
         <v>0.5</v>
       </c>
       <c r="E311" s="7" t="inlineStr"/>
+      <c r="F311" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="7" t="inlineStr"/>
@@ -5871,6 +7407,11 @@
         <v>1</v>
       </c>
       <c r="E312" s="7" t="inlineStr"/>
+      <c r="F312" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="7" t="inlineStr"/>
@@ -5888,6 +7429,11 @@
         <v>1</v>
       </c>
       <c r="E313" s="7" t="inlineStr"/>
+      <c r="F313" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="7" t="inlineStr"/>
@@ -5905,6 +7451,11 @@
         <v>1</v>
       </c>
       <c r="E314" s="7" t="inlineStr"/>
+      <c r="F314" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="7" t="inlineStr"/>
@@ -5922,6 +7473,11 @@
         <v>1</v>
       </c>
       <c r="E315" s="7" t="inlineStr"/>
+      <c r="F315" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="7" t="inlineStr"/>
@@ -5939,6 +7495,11 @@
         <v>1</v>
       </c>
       <c r="E316" s="7" t="inlineStr"/>
+      <c r="F316" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="7" t="inlineStr"/>
@@ -5956,6 +7517,11 @@
         <v>1</v>
       </c>
       <c r="E317" s="7" t="inlineStr"/>
+      <c r="F317" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="7" t="inlineStr"/>
@@ -5973,6 +7539,11 @@
         <v>1</v>
       </c>
       <c r="E318" s="7" t="inlineStr"/>
+      <c r="F318" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="7" t="inlineStr"/>
@@ -5990,6 +7561,11 @@
         <v>1</v>
       </c>
       <c r="E319" s="7" t="inlineStr"/>
+      <c r="F319" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="7" t="inlineStr"/>
@@ -6007,6 +7583,11 @@
         <v>1</v>
       </c>
       <c r="E320" s="7" t="inlineStr"/>
+      <c r="F320" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="7" t="inlineStr"/>
@@ -6024,6 +7605,11 @@
         <v>1</v>
       </c>
       <c r="E321" s="7" t="inlineStr"/>
+      <c r="F321" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="7" t="inlineStr"/>
@@ -6041,6 +7627,11 @@
         <v>1</v>
       </c>
       <c r="E322" s="7" t="inlineStr"/>
+      <c r="F322" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="7" t="inlineStr"/>
@@ -6058,6 +7649,11 @@
         <v>1</v>
       </c>
       <c r="E323" s="7" t="inlineStr"/>
+      <c r="F323" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="7" t="inlineStr"/>
@@ -6075,6 +7671,11 @@
         <v>1</v>
       </c>
       <c r="E324" s="7" t="inlineStr"/>
+      <c r="F324" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="7" t="inlineStr"/>
@@ -6092,6 +7693,11 @@
         <v>1</v>
       </c>
       <c r="E325" s="7" t="inlineStr"/>
+      <c r="F325" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="7" t="inlineStr"/>
@@ -6109,6 +7715,11 @@
         <v>1</v>
       </c>
       <c r="E326" s="7" t="inlineStr"/>
+      <c r="F326" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="7" t="inlineStr"/>
@@ -6126,6 +7737,11 @@
         <v>1</v>
       </c>
       <c r="E327" s="7" t="inlineStr"/>
+      <c r="F327" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="7" t="inlineStr"/>
@@ -6143,6 +7759,11 @@
         <v>1</v>
       </c>
       <c r="E328" s="7" t="inlineStr"/>
+      <c r="F328" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="7" t="inlineStr"/>
@@ -6160,6 +7781,11 @@
         <v>1</v>
       </c>
       <c r="E329" s="7" t="inlineStr"/>
+      <c r="F329" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="7" t="inlineStr"/>
@@ -6177,6 +7803,11 @@
         <v>1</v>
       </c>
       <c r="E330" s="7" t="inlineStr"/>
+      <c r="F330" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="7" t="inlineStr"/>
@@ -6194,6 +7825,11 @@
         <v>1</v>
       </c>
       <c r="E331" s="7" t="inlineStr"/>
+      <c r="F331" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="7" t="inlineStr"/>
@@ -6211,6 +7847,11 @@
         <v>1</v>
       </c>
       <c r="E332" s="7" t="inlineStr"/>
+      <c r="F332" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="7" t="inlineStr"/>
@@ -6228,6 +7869,11 @@
         <v>1</v>
       </c>
       <c r="E333" s="7" t="inlineStr"/>
+      <c r="F333" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="7" t="inlineStr"/>
@@ -6245,6 +7891,11 @@
         <v>1</v>
       </c>
       <c r="E334" s="7" t="inlineStr"/>
+      <c r="F334" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="7" t="inlineStr"/>
@@ -6262,6 +7913,11 @@
         <v>1</v>
       </c>
       <c r="E335" s="7" t="inlineStr"/>
+      <c r="F335" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="7" t="inlineStr"/>
@@ -6279,6 +7935,11 @@
         <v>1</v>
       </c>
       <c r="E336" s="7" t="inlineStr"/>
+      <c r="F336" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="7" t="inlineStr"/>
@@ -6296,6 +7957,11 @@
         <v>1</v>
       </c>
       <c r="E337" s="7" t="inlineStr"/>
+      <c r="F337" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="7" t="inlineStr"/>
@@ -6313,6 +7979,11 @@
         <v>1</v>
       </c>
       <c r="E338" s="7" t="inlineStr"/>
+      <c r="F338" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="7" t="inlineStr"/>
@@ -6330,6 +8001,11 @@
         <v>1</v>
       </c>
       <c r="E339" s="7" t="inlineStr"/>
+      <c r="F339" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="7" t="inlineStr"/>
@@ -6347,6 +8023,11 @@
         <v>1</v>
       </c>
       <c r="E340" s="7" t="inlineStr"/>
+      <c r="F340" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="7" t="inlineStr"/>
@@ -6364,6 +8045,11 @@
         <v>1</v>
       </c>
       <c r="E341" s="7" t="inlineStr"/>
+      <c r="F341" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="7" t="inlineStr"/>
@@ -6381,6 +8067,11 @@
         <v>1</v>
       </c>
       <c r="E342" s="7" t="inlineStr"/>
+      <c r="F342" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="7" t="inlineStr"/>
@@ -6398,6 +8089,11 @@
         <v>2.5</v>
       </c>
       <c r="E343" s="7" t="inlineStr"/>
+      <c r="F343" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="7" t="inlineStr"/>
@@ -6415,6 +8111,11 @@
         <v>1</v>
       </c>
       <c r="E344" s="7" t="inlineStr"/>
+      <c r="F344" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="7" t="inlineStr"/>
@@ -6432,6 +8133,11 @@
         <v>1</v>
       </c>
       <c r="E345" s="7" t="inlineStr"/>
+      <c r="F345" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="6" t="inlineStr">
@@ -6453,6 +8159,11 @@
         <v>1</v>
       </c>
       <c r="E346" s="7" t="inlineStr"/>
+      <c r="F346" s="8" t="inlineStr">
+        <is>
+          <t>Mobile app performance optimization requiring widget optimization and lazy loading</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="7" t="inlineStr"/>
@@ -6470,6 +8181,11 @@
         <v>1</v>
       </c>
       <c r="E347" s="7" t="inlineStr"/>
+      <c r="F347" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="7" t="inlineStr"/>
@@ -6487,6 +8203,11 @@
         <v>1</v>
       </c>
       <c r="E348" s="7" t="inlineStr"/>
+      <c r="F348" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="7" t="inlineStr"/>
@@ -6504,6 +8225,11 @@
         <v>1</v>
       </c>
       <c r="E349" s="7" t="inlineStr"/>
+      <c r="F349" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="7" t="inlineStr"/>
@@ -6521,6 +8247,11 @@
         <v>1</v>
       </c>
       <c r="E350" s="7" t="inlineStr"/>
+      <c r="F350" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="7" t="inlineStr"/>
@@ -6538,6 +8269,11 @@
         <v>1</v>
       </c>
       <c r="E351" s="7" t="inlineStr"/>
+      <c r="F351" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="7" t="inlineStr"/>
@@ -6555,6 +8291,11 @@
         <v>1</v>
       </c>
       <c r="E352" s="7" t="inlineStr"/>
+      <c r="F352" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="7" t="inlineStr"/>
@@ -6572,6 +8313,11 @@
         <v>1</v>
       </c>
       <c r="E353" s="7" t="inlineStr"/>
+      <c r="F353" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="7" t="inlineStr"/>
@@ -6589,6 +8335,11 @@
         <v>1</v>
       </c>
       <c r="E354" s="7" t="inlineStr"/>
+      <c r="F354" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="7" t="inlineStr"/>
@@ -6606,6 +8357,11 @@
         <v>1</v>
       </c>
       <c r="E355" s="7" t="inlineStr"/>
+      <c r="F355" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="7" t="inlineStr"/>
@@ -6623,6 +8379,11 @@
         <v>1</v>
       </c>
       <c r="E356" s="7" t="inlineStr"/>
+      <c r="F356" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="7" t="inlineStr"/>
@@ -6640,6 +8401,11 @@
         <v>1</v>
       </c>
       <c r="E357" s="7" t="inlineStr"/>
+      <c r="F357" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="7" t="inlineStr"/>
@@ -6657,6 +8423,11 @@
         <v>2</v>
       </c>
       <c r="E358" s="7" t="inlineStr"/>
+      <c r="F358" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="7" t="inlineStr"/>
@@ -6674,6 +8445,11 @@
         <v>2</v>
       </c>
       <c r="E359" s="7" t="inlineStr"/>
+      <c r="F359" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="7" t="inlineStr"/>
@@ -6691,6 +8467,11 @@
         <v>1</v>
       </c>
       <c r="E360" s="7" t="inlineStr"/>
+      <c r="F360" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="7" t="inlineStr"/>
@@ -6708,6 +8489,11 @@
         <v>1</v>
       </c>
       <c r="E361" s="7" t="inlineStr"/>
+      <c r="F361" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="7" t="inlineStr"/>
@@ -6725,6 +8511,11 @@
         <v>1</v>
       </c>
       <c r="E362" s="7" t="inlineStr"/>
+      <c r="F362" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="7" t="inlineStr"/>
@@ -6742,6 +8533,11 @@
         <v>1</v>
       </c>
       <c r="E363" s="7" t="inlineStr"/>
+      <c r="F363" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="7" t="inlineStr"/>
@@ -6759,6 +8555,11 @@
         <v>1</v>
       </c>
       <c r="E364" s="7" t="inlineStr"/>
+      <c r="F364" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="7" t="inlineStr"/>
@@ -6776,6 +8577,11 @@
         <v>1</v>
       </c>
       <c r="E365" s="7" t="inlineStr"/>
+      <c r="F365" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="7" t="inlineStr"/>
@@ -6793,6 +8599,11 @@
         <v>1</v>
       </c>
       <c r="E366" s="7" t="inlineStr"/>
+      <c r="F366" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="7" t="inlineStr"/>
@@ -6810,6 +8621,11 @@
         <v>1</v>
       </c>
       <c r="E367" s="7" t="inlineStr"/>
+      <c r="F367" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="7" t="inlineStr"/>
@@ -6827,6 +8643,11 @@
         <v>1</v>
       </c>
       <c r="E368" s="7" t="inlineStr"/>
+      <c r="F368" s="8" t="inlineStr">
+        <is>
+          <t>UI/UX issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="3" t="inlineStr">
@@ -6838,6 +8659,7 @@
       <c r="C369" s="4" t="inlineStr"/>
       <c r="D369" s="5" t="inlineStr"/>
       <c r="E369" s="3" t="inlineStr"/>
+      <c r="F369" s="4" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="6" t="inlineStr">
@@ -6859,6 +8681,11 @@
         <v>1</v>
       </c>
       <c r="E370" s="7" t="inlineStr"/>
+      <c r="F370" s="8" t="inlineStr">
+        <is>
+          <t>Code quality improvement in Sharapp requiring refactoring and best practices</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="7" t="inlineStr"/>
@@ -6876,6 +8703,11 @@
         <v>1</v>
       </c>
       <c r="E371" s="7" t="inlineStr"/>
+      <c r="F371" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="7" t="inlineStr"/>
@@ -6893,6 +8725,11 @@
         <v>1</v>
       </c>
       <c r="E372" s="7" t="inlineStr"/>
+      <c r="F372" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="7" t="inlineStr"/>
@@ -6910,6 +8747,11 @@
         <v>1</v>
       </c>
       <c r="E373" s="7" t="inlineStr"/>
+      <c r="F373" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="7" t="inlineStr"/>
@@ -6927,6 +8769,11 @@
         <v>1</v>
       </c>
       <c r="E374" s="7" t="inlineStr"/>
+      <c r="F374" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="7" t="inlineStr"/>
@@ -6944,6 +8791,11 @@
         <v>1</v>
       </c>
       <c r="E375" s="7" t="inlineStr"/>
+      <c r="F375" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="7" t="inlineStr"/>
@@ -6961,6 +8813,11 @@
         <v>1</v>
       </c>
       <c r="E376" s="7" t="inlineStr"/>
+      <c r="F376" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="7" t="inlineStr"/>
@@ -6978,6 +8835,11 @@
         <v>1</v>
       </c>
       <c r="E377" s="7" t="inlineStr"/>
+      <c r="F377" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="7" t="inlineStr"/>
@@ -6995,6 +8857,11 @@
         <v>1</v>
       </c>
       <c r="E378" s="7" t="inlineStr"/>
+      <c r="F378" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="7" t="inlineStr"/>
@@ -7012,6 +8879,11 @@
         <v>1</v>
       </c>
       <c r="E379" s="7" t="inlineStr"/>
+      <c r="F379" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="7" t="inlineStr"/>
@@ -7029,6 +8901,11 @@
         <v>1</v>
       </c>
       <c r="E380" s="7" t="inlineStr"/>
+      <c r="F380" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="7" t="inlineStr"/>
@@ -7046,6 +8923,11 @@
         <v>1</v>
       </c>
       <c r="E381" s="7" t="inlineStr"/>
+      <c r="F381" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="7" t="inlineStr"/>
@@ -7063,6 +8945,11 @@
         <v>1</v>
       </c>
       <c r="E382" s="7" t="inlineStr"/>
+      <c r="F382" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="6" t="inlineStr">
@@ -7084,6 +8971,11 @@
         <v>2.5</v>
       </c>
       <c r="E383" s="7" t="inlineStr"/>
+      <c r="F383" s="8" t="inlineStr">
+        <is>
+          <t>Security hardening in None requiring validation and header configuration</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="7" t="inlineStr"/>
@@ -7101,6 +8993,11 @@
         <v>2.5</v>
       </c>
       <c r="E384" s="7" t="inlineStr"/>
+      <c r="F384" s="8" t="inlineStr">
+        <is>
+          <t>Security issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="7" t="inlineStr"/>
@@ -7118,6 +9015,11 @@
         <v>2.5</v>
       </c>
       <c r="E385" s="7" t="inlineStr"/>
+      <c r="F385" s="8" t="inlineStr">
+        <is>
+          <t>Security issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="7" t="inlineStr"/>
@@ -7135,6 +9037,11 @@
         <v>2.5</v>
       </c>
       <c r="E386" s="7" t="inlineStr"/>
+      <c r="F386" s="8" t="inlineStr">
+        <is>
+          <t>Security issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="7" t="inlineStr"/>
@@ -7152,6 +9059,11 @@
         <v>2.5</v>
       </c>
       <c r="E387" s="7" t="inlineStr"/>
+      <c r="F387" s="8" t="inlineStr">
+        <is>
+          <t>Security issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="7" t="inlineStr"/>
@@ -7169,6 +9081,11 @@
         <v>2.5</v>
       </c>
       <c r="E388" s="7" t="inlineStr"/>
+      <c r="F388" s="8" t="inlineStr">
+        <is>
+          <t>Security issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="7" t="inlineStr"/>
@@ -7186,6 +9103,11 @@
         <v>2.5</v>
       </c>
       <c r="E389" s="7" t="inlineStr"/>
+      <c r="F389" s="8" t="inlineStr">
+        <is>
+          <t>Security issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="7" t="inlineStr"/>
@@ -7203,6 +9125,11 @@
         <v>2.5</v>
       </c>
       <c r="E390" s="7" t="inlineStr"/>
+      <c r="F390" s="8" t="inlineStr">
+        <is>
+          <t>Security issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="7" t="inlineStr"/>
@@ -7220,6 +9147,11 @@
         <v>2.5</v>
       </c>
       <c r="E391" s="7" t="inlineStr"/>
+      <c r="F391" s="8" t="inlineStr">
+        <is>
+          <t>Security issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="7" t="inlineStr"/>
@@ -7237,6 +9169,11 @@
         <v>1.5</v>
       </c>
       <c r="E392" s="7" t="inlineStr"/>
+      <c r="F392" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="7" t="inlineStr"/>
@@ -7254,6 +9191,11 @@
         <v>1.5</v>
       </c>
       <c r="E393" s="7" t="inlineStr"/>
+      <c r="F393" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="7" t="inlineStr"/>
@@ -7271,6 +9213,11 @@
         <v>1.5</v>
       </c>
       <c r="E394" s="7" t="inlineStr"/>
+      <c r="F394" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="7" t="inlineStr"/>
@@ -7288,6 +9235,11 @@
         <v>1.5</v>
       </c>
       <c r="E395" s="7" t="inlineStr"/>
+      <c r="F395" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="7" t="inlineStr"/>
@@ -7305,6 +9257,11 @@
         <v>1.5</v>
       </c>
       <c r="E396" s="7" t="inlineStr"/>
+      <c r="F396" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="7" t="inlineStr"/>
@@ -7322,6 +9279,11 @@
         <v>1.5</v>
       </c>
       <c r="E397" s="7" t="inlineStr"/>
+      <c r="F397" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="7" t="inlineStr"/>
@@ -7339,6 +9301,11 @@
         <v>1.5</v>
       </c>
       <c r="E398" s="7" t="inlineStr"/>
+      <c r="F398" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="7" t="inlineStr"/>
@@ -7356,6 +9323,11 @@
         <v>1.5</v>
       </c>
       <c r="E399" s="7" t="inlineStr"/>
+      <c r="F399" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="7" t="inlineStr"/>
@@ -7373,6 +9345,11 @@
         <v>1.5</v>
       </c>
       <c r="E400" s="7" t="inlineStr"/>
+      <c r="F400" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="7" t="inlineStr"/>
@@ -7390,6 +9367,11 @@
         <v>1.5</v>
       </c>
       <c r="E401" s="7" t="inlineStr"/>
+      <c r="F401" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="7" t="inlineStr"/>
@@ -7407,6 +9389,11 @@
         <v>1.5</v>
       </c>
       <c r="E402" s="7" t="inlineStr"/>
+      <c r="F402" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="7" t="inlineStr"/>
@@ -7424,6 +9411,11 @@
         <v>1.5</v>
       </c>
       <c r="E403" s="7" t="inlineStr"/>
+      <c r="F403" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="7" t="inlineStr"/>
@@ -7441,6 +9433,11 @@
         <v>1.5</v>
       </c>
       <c r="E404" s="7" t="inlineStr"/>
+      <c r="F404" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="7" t="inlineStr"/>
@@ -7458,6 +9455,11 @@
         <v>1.5</v>
       </c>
       <c r="E405" s="7" t="inlineStr"/>
+      <c r="F405" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="7" t="inlineStr"/>
@@ -7475,6 +9477,11 @@
         <v>1.5</v>
       </c>
       <c r="E406" s="7" t="inlineStr"/>
+      <c r="F406" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="7" t="inlineStr"/>
@@ -7492,6 +9499,11 @@
         <v>1.5</v>
       </c>
       <c r="E407" s="7" t="inlineStr"/>
+      <c r="F407" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="7" t="inlineStr"/>
@@ -7509,6 +9521,11 @@
         <v>1.5</v>
       </c>
       <c r="E408" s="7" t="inlineStr"/>
+      <c r="F408" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="7" t="inlineStr"/>
@@ -7526,6 +9543,11 @@
         <v>1.5</v>
       </c>
       <c r="E409" s="7" t="inlineStr"/>
+      <c r="F409" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="7" t="inlineStr"/>
@@ -7543,6 +9565,11 @@
         <v>1.5</v>
       </c>
       <c r="E410" s="7" t="inlineStr"/>
+      <c r="F410" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="7" t="inlineStr"/>
@@ -7560,6 +9587,11 @@
         <v>1.5</v>
       </c>
       <c r="E411" s="7" t="inlineStr"/>
+      <c r="F411" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="7" t="inlineStr"/>
@@ -7577,6 +9609,11 @@
         <v>1.5</v>
       </c>
       <c r="E412" s="7" t="inlineStr"/>
+      <c r="F412" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="7" t="inlineStr"/>
@@ -7594,6 +9631,11 @@
         <v>1.5</v>
       </c>
       <c r="E413" s="7" t="inlineStr"/>
+      <c r="F413" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="7" t="inlineStr"/>
@@ -7611,6 +9653,11 @@
         <v>1.5</v>
       </c>
       <c r="E414" s="7" t="inlineStr"/>
+      <c r="F414" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Passenger grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="7" t="inlineStr"/>
@@ -7628,6 +9675,11 @@
         <v>1.5</v>
       </c>
       <c r="E415" s="7" t="inlineStr"/>
+      <c r="F415" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="7" t="inlineStr"/>
@@ -7645,6 +9697,11 @@
         <v>1.5</v>
       </c>
       <c r="E416" s="7" t="inlineStr"/>
+      <c r="F416" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="7" t="inlineStr"/>
@@ -7662,6 +9719,11 @@
         <v>1.5</v>
       </c>
       <c r="E417" s="7" t="inlineStr"/>
+      <c r="F417" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="7" t="inlineStr"/>
@@ -7679,6 +9741,11 @@
         <v>1.5</v>
       </c>
       <c r="E418" s="7" t="inlineStr"/>
+      <c r="F418" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="7" t="inlineStr"/>
@@ -7696,6 +9763,11 @@
         <v>1.5</v>
       </c>
       <c r="E419" s="7" t="inlineStr"/>
+      <c r="F419" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="7" t="inlineStr"/>
@@ -7713,6 +9785,11 @@
         <v>1.5</v>
       </c>
       <c r="E420" s="7" t="inlineStr"/>
+      <c r="F420" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="7" t="inlineStr"/>
@@ -7730,6 +9807,11 @@
         <v>1.5</v>
       </c>
       <c r="E421" s="7" t="inlineStr"/>
+      <c r="F421" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="7" t="inlineStr"/>
@@ -7747,6 +9829,11 @@
         <v>1.5</v>
       </c>
       <c r="E422" s="7" t="inlineStr"/>
+      <c r="F422" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="7" t="inlineStr"/>
@@ -7764,6 +9851,11 @@
         <v>1.5</v>
       </c>
       <c r="E423" s="7" t="inlineStr"/>
+      <c r="F423" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="7" t="inlineStr"/>
@@ -7781,6 +9873,11 @@
         <v>1.5</v>
       </c>
       <c r="E424" s="7" t="inlineStr"/>
+      <c r="F424" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Mobile Driver grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="7" t="inlineStr"/>
@@ -7798,6 +9895,11 @@
         <v>1.5</v>
       </c>
       <c r="E425" s="7" t="inlineStr"/>
+      <c r="F425" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="7" t="inlineStr"/>
@@ -7815,6 +9917,11 @@
         <v>1.5</v>
       </c>
       <c r="E426" s="7" t="inlineStr"/>
+      <c r="F426" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="7" t="inlineStr"/>
@@ -7832,6 +9939,11 @@
         <v>1.5</v>
       </c>
       <c r="E427" s="7" t="inlineStr"/>
+      <c r="F427" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="7" t="inlineStr"/>
@@ -7849,6 +9961,11 @@
         <v>1.5</v>
       </c>
       <c r="E428" s="7" t="inlineStr"/>
+      <c r="F428" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="7" t="inlineStr"/>
@@ -7866,6 +9983,11 @@
         <v>1.5</v>
       </c>
       <c r="E429" s="7" t="inlineStr"/>
+      <c r="F429" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="7" t="inlineStr"/>
@@ -7883,6 +10005,11 @@
         <v>1.5</v>
       </c>
       <c r="E430" s="7" t="inlineStr"/>
+      <c r="F430" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="7" t="inlineStr"/>
@@ -7900,6 +10027,11 @@
         <v>1.5</v>
       </c>
       <c r="E431" s="7" t="inlineStr"/>
+      <c r="F431" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="7" t="inlineStr"/>
@@ -7917,6 +10049,11 @@
         <v>1.5</v>
       </c>
       <c r="E432" s="7" t="inlineStr"/>
+      <c r="F432" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="7" t="inlineStr"/>
@@ -7934,6 +10071,11 @@
         <v>1.5</v>
       </c>
       <c r="E433" s="7" t="inlineStr"/>
+      <c r="F433" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="7" t="inlineStr"/>
@@ -7951,6 +10093,11 @@
         <v>1.5</v>
       </c>
       <c r="E434" s="7" t="inlineStr"/>
+      <c r="F434" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="7" t="inlineStr"/>
@@ -7968,6 +10115,11 @@
         <v>1.5</v>
       </c>
       <c r="E435" s="7" t="inlineStr"/>
+      <c r="F435" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Cross-Repo grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="7" t="inlineStr"/>
@@ -7985,6 +10137,11 @@
         <v>1.5</v>
       </c>
       <c r="E436" s="7" t="inlineStr"/>
+      <c r="F436" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Cross-Repo grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="7" t="inlineStr"/>
@@ -8002,6 +10159,11 @@
         <v>1.5</v>
       </c>
       <c r="E437" s="7" t="inlineStr"/>
+      <c r="F437" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Nice to Have grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="7" t="inlineStr"/>
@@ -8019,6 +10181,11 @@
         <v>1.5</v>
       </c>
       <c r="E438" s="7" t="inlineStr"/>
+      <c r="F438" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Nice to Have grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="7" t="inlineStr"/>
@@ -8036,6 +10203,11 @@
         <v>1.5</v>
       </c>
       <c r="E439" s="7" t="inlineStr"/>
+      <c r="F439" s="8" t="inlineStr">
+        <is>
+          <t>Performance issue in Nice to Have grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="6" t="inlineStr">
@@ -8057,6 +10229,11 @@
         <v>1</v>
       </c>
       <c r="E440" s="7" t="inlineStr"/>
+      <c r="F440" s="8" t="inlineStr">
+        <is>
+          <t>Frontend bug in Sharapp requiring error handling and state management fixes</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="7" t="inlineStr"/>
@@ -8074,6 +10251,11 @@
         <v>1</v>
       </c>
       <c r="E441" s="7" t="inlineStr"/>
+      <c r="F441" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="7" t="inlineStr"/>
@@ -8091,6 +10273,11 @@
         <v>1</v>
       </c>
       <c r="E442" s="7" t="inlineStr"/>
+      <c r="F442" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="7" t="inlineStr"/>
@@ -8108,6 +10295,11 @@
         <v>1</v>
       </c>
       <c r="E443" s="7" t="inlineStr"/>
+      <c r="F443" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="7" t="inlineStr"/>
@@ -8125,6 +10317,11 @@
         <v>1</v>
       </c>
       <c r="E444" s="7" t="inlineStr"/>
+      <c r="F444" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="7" t="inlineStr"/>
@@ -8142,6 +10339,11 @@
         <v>1</v>
       </c>
       <c r="E445" s="7" t="inlineStr"/>
+      <c r="F445" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="7" t="inlineStr"/>
@@ -8159,6 +10361,11 @@
         <v>1</v>
       </c>
       <c r="E446" s="7" t="inlineStr"/>
+      <c r="F446" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="7" t="inlineStr"/>
@@ -8176,6 +10383,11 @@
         <v>1</v>
       </c>
       <c r="E447" s="7" t="inlineStr"/>
+      <c r="F447" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="7" t="inlineStr"/>
@@ -8193,6 +10405,11 @@
         <v>1</v>
       </c>
       <c r="E448" s="7" t="inlineStr"/>
+      <c r="F448" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="7" t="inlineStr"/>
@@ -8210,6 +10427,11 @@
         <v>1</v>
       </c>
       <c r="E449" s="7" t="inlineStr"/>
+      <c r="F449" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="7" t="inlineStr"/>
@@ -8227,6 +10449,11 @@
         <v>1</v>
       </c>
       <c r="E450" s="7" t="inlineStr"/>
+      <c r="F450" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="7" t="inlineStr"/>
@@ -8244,6 +10471,11 @@
         <v>1</v>
       </c>
       <c r="E451" s="7" t="inlineStr"/>
+      <c r="F451" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="7" t="inlineStr"/>
@@ -8261,6 +10493,11 @@
         <v>1</v>
       </c>
       <c r="E452" s="7" t="inlineStr"/>
+      <c r="F452" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="7" t="inlineStr"/>
@@ -8278,6 +10515,11 @@
         <v>1</v>
       </c>
       <c r="E453" s="7" t="inlineStr"/>
+      <c r="F453" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="7" t="inlineStr"/>
@@ -8295,6 +10537,11 @@
         <v>1</v>
       </c>
       <c r="E454" s="7" t="inlineStr"/>
+      <c r="F454" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Sharapp grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="7" t="inlineStr"/>
@@ -8312,6 +10559,11 @@
         <v>1</v>
       </c>
       <c r="E455" s="7" t="inlineStr"/>
+      <c r="F455" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="7" t="inlineStr"/>
@@ -8329,6 +10581,11 @@
         <v>1</v>
       </c>
       <c r="E456" s="7" t="inlineStr"/>
+      <c r="F456" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="7" t="inlineStr"/>
@@ -8346,6 +10603,11 @@
         <v>1</v>
       </c>
       <c r="E457" s="7" t="inlineStr"/>
+      <c r="F457" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="7" t="inlineStr"/>
@@ -8363,6 +10625,11 @@
         <v>1</v>
       </c>
       <c r="E458" s="7" t="inlineStr"/>
+      <c r="F458" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="7" t="inlineStr"/>
@@ -8380,6 +10647,11 @@
         <v>1</v>
       </c>
       <c r="E459" s="7" t="inlineStr"/>
+      <c r="F459" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="7" t="inlineStr"/>
@@ -8397,6 +10669,11 @@
         <v>1</v>
       </c>
       <c r="E460" s="7" t="inlineStr"/>
+      <c r="F460" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="7" t="inlineStr"/>
@@ -8414,6 +10691,11 @@
         <v>1</v>
       </c>
       <c r="E461" s="7" t="inlineStr"/>
+      <c r="F461" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="7" t="inlineStr"/>
@@ -8431,6 +10713,11 @@
         <v>1</v>
       </c>
       <c r="E462" s="7" t="inlineStr"/>
+      <c r="F462" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="7" t="inlineStr"/>
@@ -8448,6 +10735,11 @@
         <v>1</v>
       </c>
       <c r="E463" s="7" t="inlineStr"/>
+      <c r="F463" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="7" t="inlineStr"/>
@@ -8465,6 +10757,11 @@
         <v>1</v>
       </c>
       <c r="E464" s="7" t="inlineStr"/>
+      <c r="F464" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="7" t="inlineStr"/>
@@ -8482,6 +10779,11 @@
         <v>1</v>
       </c>
       <c r="E465" s="7" t="inlineStr"/>
+      <c r="F465" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="7" t="inlineStr"/>
@@ -8499,6 +10801,11 @@
         <v>1</v>
       </c>
       <c r="E466" s="7" t="inlineStr"/>
+      <c r="F466" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="7" t="inlineStr"/>
@@ -8516,6 +10823,11 @@
         <v>1</v>
       </c>
       <c r="E467" s="7" t="inlineStr"/>
+      <c r="F467" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="7" t="inlineStr"/>
@@ -8533,6 +10845,11 @@
         <v>1</v>
       </c>
       <c r="E468" s="7" t="inlineStr"/>
+      <c r="F468" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="7" t="inlineStr"/>
@@ -8550,6 +10867,11 @@
         <v>1</v>
       </c>
       <c r="E469" s="7" t="inlineStr"/>
+      <c r="F469" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="7" t="inlineStr"/>
@@ -8567,6 +10889,11 @@
         <v>1</v>
       </c>
       <c r="E470" s="7" t="inlineStr"/>
+      <c r="F470" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="7" t="inlineStr"/>
@@ -8584,6 +10911,11 @@
         <v>1</v>
       </c>
       <c r="E471" s="7" t="inlineStr"/>
+      <c r="F471" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="7" t="inlineStr"/>
@@ -8601,6 +10933,11 @@
         <v>1</v>
       </c>
       <c r="E472" s="7" t="inlineStr"/>
+      <c r="F472" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="7" t="inlineStr"/>
@@ -8618,6 +10955,11 @@
         <v>1</v>
       </c>
       <c r="E473" s="7" t="inlineStr"/>
+      <c r="F473" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Frontend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="6" t="inlineStr">
@@ -8639,6 +10981,11 @@
         <v>1</v>
       </c>
       <c r="E474" s="7" t="inlineStr"/>
+      <c r="F474" s="8" t="inlineStr">
+        <is>
+          <t>Backend bug in Dashboard Backend requiring API logic and data handling corrections</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="7" t="inlineStr"/>
@@ -8656,6 +11003,11 @@
         <v>1</v>
       </c>
       <c r="E475" s="7" t="inlineStr"/>
+      <c r="F475" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="7" t="inlineStr"/>
@@ -8673,6 +11025,11 @@
         <v>1</v>
       </c>
       <c r="E476" s="7" t="inlineStr"/>
+      <c r="F476" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="7" t="inlineStr"/>
@@ -8690,6 +11047,11 @@
         <v>1</v>
       </c>
       <c r="E477" s="7" t="inlineStr"/>
+      <c r="F477" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="7" t="inlineStr"/>
@@ -8707,6 +11069,11 @@
         <v>1</v>
       </c>
       <c r="E478" s="7" t="inlineStr"/>
+      <c r="F478" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="7" t="inlineStr"/>
@@ -8724,6 +11091,11 @@
         <v>1</v>
       </c>
       <c r="E479" s="7" t="inlineStr"/>
+      <c r="F479" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="7" t="inlineStr"/>
@@ -8741,6 +11113,11 @@
         <v>1</v>
       </c>
       <c r="E480" s="7" t="inlineStr"/>
+      <c r="F480" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="7" t="inlineStr"/>
@@ -8758,6 +11135,11 @@
         <v>1</v>
       </c>
       <c r="E481" s="7" t="inlineStr"/>
+      <c r="F481" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="7" t="inlineStr"/>
@@ -8775,6 +11157,11 @@
         <v>1</v>
       </c>
       <c r="E482" s="7" t="inlineStr"/>
+      <c r="F482" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="7" t="inlineStr"/>
@@ -8792,6 +11179,11 @@
         <v>1</v>
       </c>
       <c r="E483" s="7" t="inlineStr"/>
+      <c r="F483" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Mobile Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="6" t="inlineStr">
@@ -8813,6 +11205,11 @@
         <v>1</v>
       </c>
       <c r="E484" s="7" t="inlineStr"/>
+      <c r="F484" s="8" t="inlineStr">
+        <is>
+          <t>Final testing and validation issue requiring comprehensive QA</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="7" t="inlineStr"/>
@@ -8830,6 +11227,11 @@
         <v>1</v>
       </c>
       <c r="E485" s="7" t="inlineStr"/>
+      <c r="F485" s="8" t="inlineStr">
+        <is>
+          <t>Bug issue in Dashboard Backend grouped with related issues for efficient resolution</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="3" t="inlineStr">
@@ -8841,6 +11243,7 @@
       <c r="C486" s="4" t="inlineStr"/>
       <c r="D486" s="5" t="inlineStr"/>
       <c r="E486" s="3" t="inlineStr"/>
+      <c r="F486" s="4" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" s="6" t="inlineStr">
@@ -8862,6 +11265,11 @@
         <v>1.5</v>
       </c>
       <c r="E487" s="7" t="inlineStr"/>
+      <c r="F487" s="8" t="inlineStr">
+        <is>
+          <t>AWS infrastructure optimization requiring configuration tuning</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="7" t="inlineStr"/>
@@ -8879,6 +11287,11 @@
         <v>1.5</v>
       </c>
       <c r="E488" s="7" t="inlineStr"/>
+      <c r="F488" s="8" t="inlineStr">
+        <is>
+          <t>AWS issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="7" t="inlineStr"/>
@@ -8896,6 +11309,11 @@
         <v>1.5</v>
       </c>
       <c r="E489" s="7" t="inlineStr"/>
+      <c r="F489" s="8" t="inlineStr">
+        <is>
+          <t>AWS issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="7" t="inlineStr"/>
@@ -8913,6 +11331,11 @@
         <v>1.5</v>
       </c>
       <c r="E490" s="7" t="inlineStr"/>
+      <c r="F490" s="8" t="inlineStr">
+        <is>
+          <t>AWS issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="7" t="inlineStr"/>
@@ -8930,6 +11353,11 @@
         <v>1.5</v>
       </c>
       <c r="E491" s="7" t="inlineStr"/>
+      <c r="F491" s="8" t="inlineStr">
+        <is>
+          <t>AWS issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="7" t="inlineStr"/>
@@ -8947,6 +11375,11 @@
         <v>1.5</v>
       </c>
       <c r="E492" s="7" t="inlineStr"/>
+      <c r="F492" s="8" t="inlineStr">
+        <is>
+          <t>AWS issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="7" t="inlineStr"/>
@@ -8964,6 +11397,11 @@
         <v>1.5</v>
       </c>
       <c r="E493" s="7" t="inlineStr"/>
+      <c r="F493" s="8" t="inlineStr">
+        <is>
+          <t>AWS issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="7" t="inlineStr"/>
@@ -8981,6 +11419,11 @@
         <v>1.5</v>
       </c>
       <c r="E494" s="7" t="inlineStr"/>
+      <c r="F494" s="8" t="inlineStr">
+        <is>
+          <t>AWS issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="7" t="inlineStr"/>
@@ -8998,6 +11441,11 @@
         <v>1.5</v>
       </c>
       <c r="E495" s="7" t="inlineStr"/>
+      <c r="F495" s="8" t="inlineStr">
+        <is>
+          <t>AWS issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="7" t="inlineStr"/>
@@ -9015,6 +11463,11 @@
         <v>1.5</v>
       </c>
       <c r="E496" s="7" t="inlineStr"/>
+      <c r="F496" s="8" t="inlineStr">
+        <is>
+          <t>AWS issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="7" t="inlineStr"/>
@@ -9032,6 +11485,11 @@
         <v>1.5</v>
       </c>
       <c r="E497" s="7" t="inlineStr"/>
+      <c r="F497" s="8" t="inlineStr">
+        <is>
+          <t>AWS issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="7" t="inlineStr"/>
@@ -9049,6 +11507,11 @@
         <v>1.5</v>
       </c>
       <c r="E498" s="7" t="inlineStr"/>
+      <c r="F498" s="8" t="inlineStr">
+        <is>
+          <t>AWS issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="7" t="inlineStr"/>
@@ -9066,6 +11529,11 @@
         <v>1.5</v>
       </c>
       <c r="E499" s="7" t="inlineStr"/>
+      <c r="F499" s="8" t="inlineStr">
+        <is>
+          <t>AWS issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="7" t="inlineStr"/>
@@ -9083,6 +11551,11 @@
         <v>1.5</v>
       </c>
       <c r="E500" s="7" t="inlineStr"/>
+      <c r="F500" s="8" t="inlineStr">
+        <is>
+          <t>AWS issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="7" t="inlineStr"/>
@@ -9100,6 +11573,11 @@
         <v>1.5</v>
       </c>
       <c r="E501" s="7" t="inlineStr"/>
+      <c r="F501" s="8" t="inlineStr">
+        <is>
+          <t>AWS issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="7" t="inlineStr"/>
@@ -9117,6 +11595,11 @@
         <v>1.5</v>
       </c>
       <c r="E502" s="7" t="inlineStr"/>
+      <c r="F502" s="8" t="inlineStr">
+        <is>
+          <t>AWS issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="7" t="inlineStr"/>
@@ -9134,6 +11617,11 @@
         <v>1.5</v>
       </c>
       <c r="E503" s="7" t="inlineStr"/>
+      <c r="F503" s="8" t="inlineStr">
+        <is>
+          <t>AWS issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="7" t="inlineStr"/>
@@ -9151,6 +11639,11 @@
         <v>1.5</v>
       </c>
       <c r="E504" s="7" t="inlineStr"/>
+      <c r="F504" s="8" t="inlineStr">
+        <is>
+          <t>AWS issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="7" t="inlineStr"/>
@@ -9168,6 +11661,11 @@
         <v>1.5</v>
       </c>
       <c r="E505" s="7" t="inlineStr"/>
+      <c r="F505" s="8" t="inlineStr">
+        <is>
+          <t>AWS issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="7" t="inlineStr"/>
@@ -9185,6 +11683,11 @@
         <v>1.5</v>
       </c>
       <c r="E506" s="7" t="inlineStr"/>
+      <c r="F506" s="8" t="inlineStr">
+        <is>
+          <t>AWS issue grouped by type and complexity for focused development</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
